--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,166 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>43553</v>
+      </c>
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="H7" s="2">
-        <v>43280</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>547200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>720500</v>
+      </c>
+      <c r="F8" s="3">
         <v>659300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1371800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>659700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1438500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>679500</v>
       </c>
-      <c r="H8" s="3">
-        <v>1406000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>331100</v>
+      </c>
+      <c r="F9" s="3">
         <v>292300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>615100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>296600</v>
+      </c>
+      <c r="I9" s="3">
         <v>635400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>298600</v>
       </c>
-      <c r="H9" s="3">
-        <v>607300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>278400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>389400</v>
+      </c>
+      <c r="F10" s="3">
         <v>367000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>756700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>363100</v>
+      </c>
+      <c r="I10" s="3">
         <v>803100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>380900</v>
       </c>
-      <c r="H10" s="3">
-        <v>798700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F12" s="3">
         <v>36300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>83000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>43300</v>
+      </c>
+      <c r="I12" s="3">
         <v>85900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>42300</v>
       </c>
-      <c r="H12" s="3">
-        <v>86100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>572200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>642500</v>
+      </c>
+      <c r="F17" s="3">
         <v>580600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1251000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>614800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1289500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>598100</v>
       </c>
-      <c r="H17" s="3">
-        <v>1256600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F18" s="3">
         <v>78700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>120800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I18" s="3">
         <v>149000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>81400</v>
       </c>
-      <c r="H18" s="3">
-        <v>149400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1073,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>400</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>111200</v>
+        <v>7100</v>
       </c>
       <c r="E21" s="3">
-        <v>187000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>109300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>156200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>142000</v>
       </c>
       <c r="H21" s="3">
-        <v>215000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>77300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>171400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>160300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>74600</v>
+      </c>
+      <c r="F23" s="3">
         <v>78700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>122200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I23" s="3">
         <v>151300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>82900</v>
       </c>
-      <c r="H23" s="3">
-        <v>149800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F24" s="3">
         <v>16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>22800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>18800</v>
       </c>
-      <c r="H24" s="3">
-        <v>34400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F26" s="3">
         <v>62100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>99400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I26" s="3">
         <v>115300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>64100</v>
       </c>
-      <c r="H26" s="3">
-        <v>115400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F27" s="3">
         <v>62100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>99400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I27" s="3">
         <v>115300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>64100</v>
       </c>
-      <c r="H27" s="3">
-        <v>115400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F33" s="3">
         <v>62100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>99400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I33" s="3">
         <v>115300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>64100</v>
       </c>
-      <c r="H33" s="3">
-        <v>115400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F35" s="3">
         <v>62100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>99400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I35" s="3">
         <v>115300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>64100</v>
       </c>
-      <c r="H35" s="3">
-        <v>115400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>43553</v>
+      </c>
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="H38" s="2">
-        <v>43280</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>353600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>211200</v>
+      </c>
+      <c r="F41" s="3">
         <v>193200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,22 +1769,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>443600</v>
+      </c>
+      <c r="F43" s="3">
         <v>456400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>3793400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1619,22 +1804,28 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>277900</v>
+      </c>
+      <c r="F44" s="3">
         <v>278400</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>1624300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1648,22 +1839,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F45" s="3">
         <v>50500</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>857200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1677,22 +1874,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1114200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1001900</v>
+      </c>
+      <c r="F46" s="3">
         <v>978500</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>280300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1706,51 +1909,63 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+        <v>22300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1155600</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>482600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>490400</v>
+      </c>
+      <c r="F48" s="3">
         <v>484900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>10238500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1764,22 +1979,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4551100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4591600</v>
+      </c>
+      <c r="F49" s="3">
         <v>4574300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>431400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,22 +2084,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F52" s="3">
         <v>80700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>816400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,22 +2154,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6240900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6158300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6118400</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>6009000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2223,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F57" s="3">
         <v>181400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>3321900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1993,22 +2254,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F58" s="3">
         <v>152000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>280300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,22 +2289,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>410600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>497300</v>
+      </c>
+      <c r="F59" s="3">
         <v>427300</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>1656800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2051,20 +2324,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>608900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>709200</v>
+      </c>
+      <c r="F60" s="3">
         <v>760700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2359,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1546700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1321000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1304500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,22 +2394,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>585300</v>
+      </c>
+      <c r="F62" s="3">
         <v>539200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>367200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2757200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2618100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2607100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>93100</v>
+      </c>
+      <c r="F72" s="3">
         <v>37000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3483700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3540200</v>
+      </c>
+      <c r="F76" s="3">
         <v>3511300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>43553</v>
+      </c>
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="H80" s="2">
-        <v>43280</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F81" s="3">
         <v>62100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>99400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I81" s="3">
         <v>115300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>64100</v>
       </c>
-      <c r="H81" s="3">
-        <v>115400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>77300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H83" s="3">
         <v>32300</v>
       </c>
-      <c r="E83" s="3">
-        <v>64800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>77400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>219900</v>
+        <v>-62300</v>
       </c>
       <c r="E89" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>187000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>210100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>210500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>-15900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-15600</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62400</v>
+        <v>-51400</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>58900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,16 +3579,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>40400</v>
+        <v>258500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-148100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3111,8 +3602,8 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>24300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3123,16 +3614,22 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4900</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3140,8 +3637,8 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3649,22 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>193200</v>
+        <v>142400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3169,8 +3672,8 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E8" s="3">
         <v>547200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>720500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>659300</v>
       </c>
-      <c r="G8" s="3">
-        <v>1371800</v>
-      </c>
       <c r="H8" s="3">
+        <v>2083900</v>
+      </c>
+      <c r="I8" s="3">
         <v>659700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1438500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>679500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>268800</v>
+        <v>187600</v>
       </c>
       <c r="E9" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F9" s="3">
         <v>331100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>292300</v>
       </c>
-      <c r="G9" s="3">
-        <v>615100</v>
-      </c>
       <c r="H9" s="3">
+        <v>319900</v>
+      </c>
+      <c r="I9" s="3">
         <v>296600</v>
       </c>
-      <c r="I9" s="3">
-        <v>635400</v>
-      </c>
       <c r="J9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K9" s="3">
         <v>298600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>278400</v>
+        <v>174400</v>
       </c>
       <c r="E10" s="3">
+        <v>281200</v>
+      </c>
+      <c r="F10" s="3">
         <v>389400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>367000</v>
       </c>
-      <c r="G10" s="3">
-        <v>756700</v>
-      </c>
       <c r="H10" s="3">
+        <v>1764000</v>
+      </c>
+      <c r="I10" s="3">
         <v>363100</v>
       </c>
-      <c r="I10" s="3">
-        <v>803100</v>
-      </c>
       <c r="J10" s="3">
+        <v>1436200</v>
+      </c>
+      <c r="K10" s="3">
         <v>380900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +850,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36300</v>
       </c>
-      <c r="G12" s="3">
-        <v>83000</v>
-      </c>
       <c r="H12" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I12" s="3">
         <v>43300</v>
       </c>
-      <c r="I12" s="3">
-        <v>85900</v>
-      </c>
       <c r="J12" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K12" s="3">
         <v>42300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,31 +924,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>68900</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>12300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>1886900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1943600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1015,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>469900</v>
+      </c>
+      <c r="E17" s="3">
         <v>572200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>642500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>580600</v>
       </c>
-      <c r="G17" s="3">
-        <v>1251000</v>
-      </c>
       <c r="H17" s="3">
+        <v>735600</v>
+      </c>
+      <c r="I17" s="3">
         <v>614800</v>
       </c>
-      <c r="I17" s="3">
-        <v>1289500</v>
-      </c>
       <c r="J17" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K17" s="3">
         <v>598100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78700</v>
       </c>
-      <c r="G18" s="3">
-        <v>120800</v>
-      </c>
       <c r="H18" s="3">
+        <v>1348300</v>
+      </c>
+      <c r="I18" s="3">
         <v>44900</v>
       </c>
-      <c r="I18" s="3">
-        <v>149000</v>
-      </c>
       <c r="J18" s="3">
+        <v>1323200</v>
+      </c>
+      <c r="K18" s="3">
         <v>81400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,95 +1117,101 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1171700</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="E21" s="3">
         <v>7100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>109300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>156200</v>
       </c>
-      <c r="G21" s="3">
-        <v>142000</v>
-      </c>
       <c r="H21" s="3">
+        <v>164100</v>
+      </c>
+      <c r="I21" s="3">
         <v>77300</v>
       </c>
-      <c r="I21" s="3">
-        <v>171400</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>160300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>14500</v>
       </c>
       <c r="E22" s="3">
         <v>3300</v>
       </c>
       <c r="F22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>99400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+        <v>115300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1180,78 +1219,87 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>74600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>78700</v>
       </c>
-      <c r="G23" s="3">
-        <v>122200</v>
-      </c>
       <c r="H23" s="3">
+        <v>77200</v>
+      </c>
+      <c r="I23" s="3">
         <v>45000</v>
       </c>
-      <c r="I23" s="3">
-        <v>151300</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
         <v>82900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16600</v>
       </c>
-      <c r="G24" s="3">
-        <v>22800</v>
-      </c>
       <c r="H24" s="3">
+        <v>115100</v>
+      </c>
+      <c r="I24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
-        <v>36000</v>
-      </c>
       <c r="J24" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1333,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>62100</v>
       </c>
-      <c r="G26" s="3">
-        <v>99400</v>
-      </c>
       <c r="H26" s="3">
+        <v>216100</v>
+      </c>
+      <c r="I26" s="3">
         <v>37900</v>
       </c>
-      <c r="I26" s="3">
-        <v>115300</v>
-      </c>
       <c r="J26" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K26" s="3">
         <v>64100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62100</v>
       </c>
-      <c r="G27" s="3">
-        <v>99400</v>
-      </c>
       <c r="H27" s="3">
+        <v>216100</v>
+      </c>
+      <c r="I27" s="3">
         <v>37900</v>
       </c>
-      <c r="I27" s="3">
-        <v>115300</v>
-      </c>
       <c r="J27" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K27" s="3">
         <v>64100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,69 +1573,75 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H32" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62100</v>
       </c>
-      <c r="G33" s="3">
-        <v>99400</v>
-      </c>
       <c r="H33" s="3">
+        <v>216100</v>
+      </c>
+      <c r="I33" s="3">
         <v>37900</v>
       </c>
-      <c r="I33" s="3">
-        <v>115300</v>
-      </c>
       <c r="J33" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K33" s="3">
         <v>64100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1675,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62100</v>
       </c>
-      <c r="G35" s="3">
-        <v>99400</v>
-      </c>
       <c r="H35" s="3">
+        <v>216100</v>
+      </c>
+      <c r="I35" s="3">
         <v>37900</v>
       </c>
-      <c r="I35" s="3">
-        <v>115300</v>
-      </c>
       <c r="J35" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K35" s="3">
         <v>64100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>822400</v>
+      </c>
+      <c r="E41" s="3">
         <v>353600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,25 +1864,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E43" s="3">
         <v>365900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>443600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>456400</v>
       </c>
-      <c r="G43" s="3">
-        <v>3793400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>3602200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1810,26 +1902,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E44" s="3">
         <v>312300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>277900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>278400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1624300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,25 +1940,28 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E45" s="3">
         <v>82400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50500</v>
       </c>
-      <c r="G45" s="3">
-        <v>857200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>1328700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1880,25 +1978,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1517700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1114200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1001900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>978500</v>
       </c>
-      <c r="G46" s="3">
-        <v>280300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>6009000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1915,25 +2016,28 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>22300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>1155600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4938800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1941,8 +2045,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1950,25 +2054,28 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>483200</v>
+      </c>
+      <c r="E48" s="3">
         <v>482600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>490400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>484900</v>
       </c>
-      <c r="G48" s="3">
-        <v>10238500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>12461400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1985,25 +2092,28 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4589100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4551100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4591600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4574300</v>
       </c>
-      <c r="G49" s="3">
-        <v>431400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>623900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,25 +2206,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E52" s="3">
         <v>70700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>80700</v>
       </c>
-      <c r="G52" s="3">
-        <v>816400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>626800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,25 +2282,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6665200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6240900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6158300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6118400</v>
       </c>
-      <c r="G54" s="3">
-        <v>6009000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>4856300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,25 +2354,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E57" s="3">
         <v>194800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>208000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>181400</v>
       </c>
-      <c r="G57" s="3">
-        <v>3321900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>2900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2260,23 +2390,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>253500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>152000</v>
       </c>
-      <c r="G58" s="3">
-        <v>280300</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,25 +2428,28 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>445800</v>
+      </c>
+      <c r="E59" s="3">
         <v>410600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>497300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>427300</v>
       </c>
-      <c r="G59" s="3">
-        <v>1656800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>5101400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2330,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>830200</v>
+      </c>
+      <c r="E60" s="3">
         <v>608900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>709200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>760700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,25 +2504,28 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1722200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1546700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1321000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1304500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2400,25 +2542,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>616900</v>
+      </c>
+      <c r="E62" s="3">
         <v>599000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>585300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>539200</v>
       </c>
-      <c r="G62" s="3">
-        <v>367200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>354200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3171800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2757200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2618100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2607100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2900,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E72" s="3">
         <v>75900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>93100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3493400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3483700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3540200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3511300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3128,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62100</v>
       </c>
-      <c r="G81" s="3">
-        <v>99400</v>
-      </c>
       <c r="H81" s="3">
+        <v>216100</v>
+      </c>
+      <c r="I81" s="3">
         <v>37900</v>
       </c>
-      <c r="I81" s="3">
-        <v>115300</v>
-      </c>
       <c r="J81" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K81" s="3">
         <v>64100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,43 +3227,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E83" s="3">
         <v>32000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77300</v>
       </c>
-      <c r="G83" s="3">
-        <v>19800</v>
-      </c>
       <c r="H83" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I83" s="3">
         <v>32300</v>
       </c>
-      <c r="I83" s="3">
-        <v>20100</v>
-      </c>
       <c r="J83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K83" s="3">
         <v>77400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3453,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-62300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>187000</v>
       </c>
-      <c r="F89" s="3">
-        <v>210100</v>
-      </c>
       <c r="G89" s="3">
-        <v>400</v>
+        <v>281300</v>
       </c>
       <c r="H89" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="K89" s="3">
         <v>210500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,34 +3509,35 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>8900</v>
       </c>
       <c r="H91" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-15600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3621,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15800</v>
       </c>
-      <c r="F94" s="3">
-        <v>8200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-70800</v>
+        <v>-62600</v>
       </c>
       <c r="H94" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-15300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-225200</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>58900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,29 +3827,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>474600</v>
+      </c>
+      <c r="E100" s="3">
         <v>258500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-148100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>24300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,28 +3865,31 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3655,28 +3903,31 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E102" s="3">
         <v>142400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>640500</v>
+      </c>
+      <c r="E8" s="3">
         <v>362000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>547200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>720500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>659300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2083900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>659700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1438500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>679500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E9" s="3">
         <v>187600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>266000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>331100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>292300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>319900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>296600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>298600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>349300</v>
+      </c>
+      <c r="E10" s="3">
         <v>174400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>281200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>389400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>367000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1764000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>363100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1436200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>380900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,46 +863,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E12" s="3">
         <v>16500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>62500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,35 +943,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E14" s="3">
         <v>68900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>1886900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1943600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -965,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1041,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>571100</v>
+      </c>
+      <c r="E17" s="3">
         <v>469900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>572200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>642500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>580600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>735600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>614800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>598100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-107900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1348300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1323200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,113 +1140,120 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1171700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-74900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>109300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>156200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>164100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>77300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>160300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E22" s="3">
         <v>14500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3300</v>
       </c>
       <c r="F22" s="3">
         <v>3300</v>
       </c>
       <c r="G22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>99400</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>115300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1222,84 +1261,93 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-122300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>74600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>78700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>77200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>82900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-28800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>115100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>115300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,84 +1384,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-93500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>62100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>216100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>154600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>64100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-93500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>216100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>154600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,84 +1630,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1171700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-93500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>216100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>154600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,89 +1753,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-93500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>216100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>154600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1876,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700800</v>
+      </c>
+      <c r="E41" s="3">
         <v>822400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>353600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1915,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,29 +1956,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E43" s="3">
         <v>306400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>365900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>443600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>456400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3602200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,29 +1997,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E44" s="3">
         <v>280800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>312300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>277900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>278400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1624300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,29 +2038,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E45" s="3">
         <v>108100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1328700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2079,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1517700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1114200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1001900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>978500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6009000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,37 +2120,40 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>22300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>4938800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2057,29 +2161,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>473900</v>
+      </c>
+      <c r="E48" s="3">
         <v>483200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>482600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>490400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>484900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12461400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,29 +2202,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4642900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4589100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4551100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4591600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4574300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>623900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,29 +2325,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E52" s="3">
         <v>75200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>70700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>80700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>626800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2407,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6605700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6665200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6240900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6158300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6118400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4856300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2484,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E57" s="3">
         <v>130900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>194800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>208000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>181400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,26 +2523,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>253500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>152000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,29 +2564,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E59" s="3">
         <v>445800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>410600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>497300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>427300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5101400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2605,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>678900</v>
+      </c>
+      <c r="E60" s="3">
         <v>830200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>608900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>709200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>760700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,29 +2646,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1755500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1722200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1546700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1321000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1304500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2545,29 +2687,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>611500</v>
+      </c>
+      <c r="E62" s="3">
         <v>616900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>599000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>585300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>539200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>354200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2851,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3048100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3171800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2757200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2618100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2607100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3073,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>75900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>93100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3237,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3557600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3493400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3483700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3540200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3511300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,89 +3319,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-93500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>216100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>154600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,46 +3425,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E83" s="3">
         <v>32900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-12500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,46 +3669,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-62300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>187000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>281300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-225200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>210500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,37 +3729,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-225200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3548,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,46 +3850,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>58900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4072,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-244400</v>
+      </c>
+      <c r="E100" s="3">
         <v>474600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>258500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-148100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>24300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,31 +4113,34 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3906,31 +4154,34 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="E102" s="3">
         <v>468800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>142400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,190 +665,203 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43924</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>732300</v>
+      </c>
+      <c r="E8" s="3">
         <v>640500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>362000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>547200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>720500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>659300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2083900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>659700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1438500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>679500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>291200</v>
+        <v>334200</v>
       </c>
       <c r="E9" s="3">
+        <v>282200</v>
+      </c>
+      <c r="F9" s="3">
         <v>187600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>266000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>331100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>292300</v>
       </c>
-      <c r="I9" s="3">
-        <v>319900</v>
-      </c>
       <c r="J9" s="3">
+        <v>440700</v>
+      </c>
+      <c r="K9" s="3">
         <v>296600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>298600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>349300</v>
+        <v>398100</v>
       </c>
       <c r="E10" s="3">
+        <v>358300</v>
+      </c>
+      <c r="F10" s="3">
         <v>174400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>281200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>389400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>367000</v>
       </c>
-      <c r="I10" s="3">
-        <v>1764000</v>
-      </c>
       <c r="J10" s="3">
+        <v>1643200</v>
+      </c>
+      <c r="K10" s="3">
         <v>363100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1436200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>380900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,49 +877,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E12" s="3">
         <v>22500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36300</v>
       </c>
-      <c r="I12" s="3">
-        <v>62500</v>
-      </c>
       <c r="J12" s="3">
+        <v>139100</v>
+      </c>
+      <c r="K12" s="3">
         <v>43300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,38 +963,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37700</v>
+        <v>43300</v>
       </c>
       <c r="E14" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F14" s="3">
         <v>68900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>1886900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1950500</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>1943600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,90 +1068,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>635500</v>
+      </c>
+      <c r="E17" s="3">
         <v>571100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>469900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>572200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>642500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>580600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>735600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>614800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>598100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E18" s="3">
         <v>69400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-107900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1348300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1323200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,122 +1174,129 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-1171700</v>
-      </c>
       <c r="J20" s="3">
+        <v>-1017100</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E21" s="3">
         <v>104200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-74900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>156200</v>
       </c>
-      <c r="I21" s="3">
-        <v>164100</v>
-      </c>
       <c r="J21" s="3">
+        <v>318700</v>
+      </c>
+      <c r="K21" s="3">
         <v>77300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>160300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E22" s="3">
         <v>23400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3300</v>
       </c>
       <c r="G22" s="3">
         <v>3300</v>
       </c>
       <c r="H22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>99400</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>115300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1264,90 +1304,99 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E23" s="3">
         <v>46200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-122300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>74600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>78700</v>
       </c>
-      <c r="I23" s="3">
-        <v>77200</v>
-      </c>
       <c r="J23" s="3">
+        <v>231800</v>
+      </c>
+      <c r="K23" s="3">
         <v>45000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>82900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-28800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16600</v>
       </c>
-      <c r="I24" s="3">
-        <v>115100</v>
-      </c>
       <c r="J24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>115300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,90 +1436,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E26" s="3">
         <v>35600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-93500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62100</v>
       </c>
-      <c r="I26" s="3">
-        <v>216100</v>
-      </c>
       <c r="J26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K26" s="3">
         <v>37900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>154600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E27" s="3">
         <v>35600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-93500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62100</v>
       </c>
-      <c r="I27" s="3">
-        <v>216100</v>
-      </c>
       <c r="J27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K27" s="3">
         <v>37900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>154600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,90 +1700,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>1171700</v>
-      </c>
       <c r="J32" s="3">
+        <v>1017100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E33" s="3">
         <v>35600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-93500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62100</v>
       </c>
-      <c r="I33" s="3">
-        <v>216100</v>
-      </c>
       <c r="J33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K33" s="3">
         <v>37900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>154600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,95 +1832,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E35" s="3">
         <v>35600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-93500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62100</v>
       </c>
-      <c r="I35" s="3">
-        <v>216100</v>
-      </c>
       <c r="J35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K35" s="3">
         <v>37900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>154600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43924</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>888900</v>
+      </c>
+      <c r="E41" s="3">
         <v>700800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>822400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>353600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,32 +2049,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E43" s="3">
         <v>365400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>306400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>365900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>443600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>456400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3602200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,32 +2093,35 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E44" s="3">
         <v>257500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>280800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>312300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>277900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>278400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1624300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,32 +2137,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E45" s="3">
         <v>92500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>108100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>82400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1328700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,32 +2181,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1590500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1416200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1517700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1114200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1001900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>978500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6009000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2134,29 +2239,29 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>22300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>4938800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2164,31 +2269,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E48" s="3">
         <v>473900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>483200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>482600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>490400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>484900</v>
       </c>
-      <c r="I48" s="3">
-        <v>12461400</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>17317700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2205,32 +2313,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4689900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4642900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4589100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4551100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4591600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4574300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>623900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,32 +2445,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E52" s="3">
         <v>72700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>626800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,31 +2533,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6605700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6665200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6240900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6158300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6118400</v>
       </c>
-      <c r="I54" s="3">
-        <v>4856300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>154600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,29 +2615,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E57" s="3">
         <v>161100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>130900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>194800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>208000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>181400</v>
       </c>
-      <c r="I57" s="3">
-        <v>2900</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,29 +2657,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>886800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>253500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>152000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,31 +2701,34 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>562800</v>
+      </c>
+      <c r="E59" s="3">
         <v>514000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>445800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>410600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>497300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>427300</v>
       </c>
-      <c r="I59" s="3">
-        <v>5101400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>5070100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2608,31 +2745,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1684700</v>
+      </c>
+      <c r="E60" s="3">
         <v>678900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>830200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>608900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>709200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>760700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>17300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2649,31 +2789,34 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>907700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1755500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1722200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1546700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1321000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1304500</v>
       </c>
-      <c r="I61" s="3">
-        <v>29900</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2690,31 +2833,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>562600</v>
+      </c>
+      <c r="E62" s="3">
         <v>611500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>616900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>599000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>585300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>539200</v>
       </c>
-      <c r="I62" s="3">
-        <v>354200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>329200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3155400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3048100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3171800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2757200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2618100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2607100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E72" s="3">
         <v>18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>75900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>93100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3720600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3557600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3493400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3483700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3540200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3511300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,95 +3511,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43924</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E81" s="3">
         <v>35600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-93500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62100</v>
       </c>
-      <c r="I81" s="3">
-        <v>216100</v>
-      </c>
       <c r="J81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K81" s="3">
         <v>37900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>154600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,49 +3624,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E83" s="3">
         <v>34600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,49 +3886,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E89" s="3">
         <v>148100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-62300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>187000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>281300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-61800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-225200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>210500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,40 +3950,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>8900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-225200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,49 +4080,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-62600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>58900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-244400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>474600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>258500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-148100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>24300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,34 +4362,37 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4157,34 +4406,37 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-121600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>468800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>142400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,216 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43924</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>709200</v>
+      </c>
+      <c r="E8" s="3">
         <v>732300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>640500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>362000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>547200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>720500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>659300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2083900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>659700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1438500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>679500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>309100</v>
+      </c>
+      <c r="E9" s="3">
         <v>334200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>282200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>187600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>266000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>331100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>292300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>440700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>296600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>298600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400100</v>
+      </c>
+      <c r="E10" s="3">
         <v>398100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>358300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>174400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>281200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>389400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>367000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1643200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>363100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1436200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>380900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,52 +891,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E12" s="3">
         <v>27100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>139100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,41 +983,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E14" s="3">
         <v>43300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>68900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1950500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>1943600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1095,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600900</v>
+      </c>
+      <c r="E17" s="3">
         <v>635500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>571100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>469900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>572200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>642500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>580600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>735600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>614800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>598100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E18" s="3">
         <v>96800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>69400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-107900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1348300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1323200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,131 +1208,138 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E21" s="3">
         <v>128600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>104200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-74900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>318700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>160300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
         <v>21300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3300</v>
       </c>
       <c r="H22" s="3">
         <v>3300</v>
       </c>
       <c r="I22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>99400</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>115300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1307,96 +1347,105 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E23" s="3">
         <v>74200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-122300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>74600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>78700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>231800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
         <v>82900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-34200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-28800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>115300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1488,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E26" s="3">
         <v>108400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-93500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>62100</v>
       </c>
       <c r="J26" s="3">
         <v>62100</v>
       </c>
       <c r="K26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="L26" s="3">
         <v>37900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>154600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>64100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E27" s="3">
         <v>108400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-93500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>62100</v>
       </c>
       <c r="J27" s="3">
         <v>62100</v>
       </c>
       <c r="K27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="L27" s="3">
         <v>37900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>154600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1770,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1017100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E33" s="3">
         <v>108400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-93500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>62100</v>
       </c>
       <c r="J33" s="3">
         <v>62100</v>
       </c>
       <c r="K33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="L33" s="3">
         <v>37900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>154600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1911,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E35" s="3">
         <v>108400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-93500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>62100</v>
       </c>
       <c r="J35" s="3">
         <v>62100</v>
       </c>
       <c r="K35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="L35" s="3">
         <v>37900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>154600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44015</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43924</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>441200</v>
+      </c>
+      <c r="E41" s="3">
         <v>888900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>822400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>353600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>211200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,35 +2142,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>358100</v>
+      </c>
+      <c r="E43" s="3">
         <v>361000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>365400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>306400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>365900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>443600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>456400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3602200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,35 +2189,38 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>283200</v>
+      </c>
+      <c r="E44" s="3">
         <v>266900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>257500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>280800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>312300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>277900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>278400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1624300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,35 +2236,38 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E45" s="3">
         <v>73700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>92500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>108100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1328700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,35 +2283,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1163300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1590500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1416200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1517700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1114200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1001900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>978500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6009000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,29 +2347,29 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>22300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>4938800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2272,35 +2377,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>451200</v>
+      </c>
+      <c r="E48" s="3">
         <v>468300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>473900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>483200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>482600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>490400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>484900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17317700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,35 +2424,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4580400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4689900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4642900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4589100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4551100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4591600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4574300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>623900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,35 +2565,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E52" s="3">
         <v>127300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>626800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,35 +2659,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6321900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6605700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6665200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6240900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6158300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6118400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E57" s="3">
         <v>235100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>161100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>130900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>194800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>208000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>181400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,32 +2791,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>416400</v>
+      </c>
+      <c r="E58" s="3">
         <v>886800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>253500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>152000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,35 +2838,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>515300</v>
+      </c>
+      <c r="E59" s="3">
         <v>562800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>514000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>445800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>410600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>497300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>427300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5070100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,35 +2885,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1136300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1684700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>678900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>830200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>608900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>709200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>760700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,35 +2932,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>892200</v>
+      </c>
+      <c r="E61" s="3">
         <v>907700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1755500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1722200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1546700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1321000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1304500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2836,35 +2979,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>546100</v>
+      </c>
+      <c r="E62" s="3">
         <v>562600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>611500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>616900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>599000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>585300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>539200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>329200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3155400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3048100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3171800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2757200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2618100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2607100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E72" s="3">
         <v>126400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>75900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>93100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3746900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3720600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3557600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3493400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3483700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3540200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3511300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3703,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44015</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43924</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E81" s="3">
         <v>108400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-93500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>62100</v>
       </c>
       <c r="J81" s="3">
         <v>62100</v>
       </c>
       <c r="K81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="L81" s="3">
         <v>37900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>154600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +3823,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E83" s="3">
         <v>33100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4103,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E89" s="3">
         <v>193400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>148100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-62300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>187000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>281300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-61800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-225200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>210500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,43 +4171,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>8900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-225200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4310,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-62600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>58900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-469600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-244400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>474600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>258500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-148100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>24300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,37 +4611,40 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4409,37 +4658,40 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-447700</v>
+      </c>
+      <c r="E102" s="3">
         <v>188100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-121600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>468800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>142400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,228 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43924</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>740100</v>
+      </c>
+      <c r="E8" s="3">
         <v>709200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>732300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>640500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>362000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>547200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>720500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>659300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2083900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>659700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1438500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>679500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>325300</v>
+      </c>
+      <c r="E9" s="3">
         <v>309100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>334200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>282200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>187600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>266000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>331100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>292300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>440700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>296600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>298600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>414800</v>
+      </c>
+      <c r="E10" s="3">
         <v>400100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>398100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>358300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>174400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>281200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>389400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>367000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1643200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>363100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1436200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>380900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,55 +904,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E12" s="3">
         <v>30100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>139100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,44 +1002,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>43300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>68900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>1950500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>1943600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,102 +1121,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>641600</v>
+      </c>
+      <c r="E17" s="3">
         <v>600900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>635500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>571100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>469900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>572200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>642500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>580600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>735600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>614800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>598100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E18" s="3">
         <v>108300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>69400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1348300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1323200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1241,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,131 +1251,137 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E21" s="3">
         <v>139900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>104200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-74900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>156200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>318700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>77300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>160300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3300</v>
       </c>
       <c r="I22" s="3">
         <v>3300</v>
       </c>
       <c r="J22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>99400</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>115300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1350,102 +1389,111 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E23" s="3">
         <v>90600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>74200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-122300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>74600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>78700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>231800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
         <v>82900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>18900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-34200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-28800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>115300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,102 +1539,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E26" s="3">
         <v>71700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>108400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-93500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>62100</v>
       </c>
       <c r="K26" s="3">
         <v>62100</v>
       </c>
       <c r="L26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="M26" s="3">
         <v>37900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>154600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>64100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E27" s="3">
         <v>71700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>108400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-93500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>62100</v>
       </c>
       <c r="K27" s="3">
         <v>62100</v>
       </c>
       <c r="L27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="M27" s="3">
         <v>37900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>154600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1839,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,93 +1851,99 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1017100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E33" s="3">
         <v>71700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-93500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>62100</v>
       </c>
       <c r="K33" s="3">
         <v>62100</v>
       </c>
       <c r="L33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="M33" s="3">
         <v>37900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,107 +1989,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E35" s="3">
         <v>71700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-93500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>62100</v>
       </c>
       <c r="K35" s="3">
         <v>62100</v>
       </c>
       <c r="L35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="M35" s="3">
         <v>37900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44015</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43924</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>553900</v>
+      </c>
+      <c r="E41" s="3">
         <v>441200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>888900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>822400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>353600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>211200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>193200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,38 +2234,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E43" s="3">
         <v>358100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>361000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>365400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>306400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>365900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>443600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>456400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3602200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,38 +2284,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>311500</v>
+      </c>
+      <c r="E44" s="3">
         <v>283200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>266900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>257500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>280800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>312300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>277900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>278400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1624300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,38 +2334,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E45" s="3">
         <v>80800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>92500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>82400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>69200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1328700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2384,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1301700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1163300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1590500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1416200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1517700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1114200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1001900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>978500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6009000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2434,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,29 +2454,29 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>22300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>4938800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2380,38 +2484,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>457800</v>
+      </c>
+      <c r="E48" s="3">
         <v>451200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>473900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>483200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>482600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>490400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>484900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17317700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,38 +2534,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4574800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4580400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4689900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4642900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4589100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4551100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4591600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4574300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>623900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,38 +2684,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E52" s="3">
         <v>127000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>626800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2784,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6481300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6321900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6605700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6665200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6240900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6158300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6118400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E57" s="3">
         <v>204600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>235100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>161100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>130900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>194800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>208000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>181400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +2924,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>421500</v>
+      </c>
+      <c r="E58" s="3">
         <v>416400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>886800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>253500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>152000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,38 +2974,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>532300</v>
+      </c>
+      <c r="E59" s="3">
         <v>515300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>562800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>514000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>445800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>410600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>497300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>427300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5070100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,38 +3024,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1163200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1136300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1684700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>678900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>830200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>608900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>709200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>760700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,38 +3074,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>893200</v>
+      </c>
+      <c r="E61" s="3">
         <v>892200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>907700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1755500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1722200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1546700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1321000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1304500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2982,38 +3124,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E62" s="3">
         <v>546100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>562600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>611500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>616900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>599000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>585300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>539200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>329200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2612800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2575000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3155400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3048100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3171800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2757200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2618100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2607100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>288200</v>
+      </c>
+      <c r="E72" s="3">
         <v>198100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>126400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>75900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>93100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3868500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3746900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3720600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3557600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3493400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3483700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3540200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3511300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,107 +3894,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44015</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43924</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E81" s="3">
         <v>71700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-93500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>62100</v>
       </c>
       <c r="K81" s="3">
         <v>62100</v>
       </c>
       <c r="L81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="M81" s="3">
         <v>37900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4021,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E83" s="3">
         <v>31300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,55 +4319,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E89" s="3">
         <v>16600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>193400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>148100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-62300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>187000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>281300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-61800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-225200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>210500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,46 +4391,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>8900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-225200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,55 +4539,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-62600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>58900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4809,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-469600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-244400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>474600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>258500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-148100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>24300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,40 +4859,43 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>10800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4661,40 +4909,43 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-447700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>188100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-121600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>468800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>142400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,240 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44015</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43924</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>607300</v>
+      </c>
+      <c r="E8" s="3">
         <v>740100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>709200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>732300</v>
       </c>
-      <c r="G8" s="3">
-        <v>640500</v>
-      </c>
       <c r="H8" s="3">
+        <v>547200</v>
+      </c>
+      <c r="I8" s="3">
         <v>362000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>547200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>720500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>659300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2083900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>659700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1438500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>679500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="3">
         <v>325300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>309100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>334200</v>
       </c>
-      <c r="G9" s="3">
-        <v>282200</v>
-      </c>
       <c r="H9" s="3">
+        <v>235500</v>
+      </c>
+      <c r="I9" s="3">
         <v>187600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>266000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>331100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>292300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>440700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>296600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>298600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>357300</v>
+      </c>
+      <c r="E10" s="3">
         <v>414800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>398100</v>
       </c>
-      <c r="G10" s="3">
-        <v>358300</v>
-      </c>
       <c r="H10" s="3">
+        <v>311700</v>
+      </c>
+      <c r="I10" s="3">
         <v>174400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>281200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>389400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>367000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1643200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>363100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1436200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>380900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,58 +917,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>30300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27100</v>
       </c>
-      <c r="G12" s="3">
-        <v>22500</v>
-      </c>
       <c r="H12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="3">
         <v>16500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>139100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>42300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,47 +1021,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43300</v>
       </c>
-      <c r="G14" s="3">
-        <v>55900</v>
-      </c>
       <c r="H14" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I14" s="3">
         <v>68900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>1950500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>1943600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1055,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>525600</v>
+      </c>
+      <c r="E17" s="3">
         <v>641600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>635500</v>
       </c>
-      <c r="G17" s="3">
-        <v>571100</v>
-      </c>
       <c r="H17" s="3">
+        <v>485600</v>
+      </c>
+      <c r="I17" s="3">
         <v>469900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>572200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>642500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>580600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>735600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>614800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>598100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E18" s="3">
         <v>98500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>108300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96800</v>
       </c>
-      <c r="G18" s="3">
-        <v>69400</v>
-      </c>
       <c r="H18" s="3">
+        <v>61600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-107900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1348300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1323200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,149 +1274,156 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E21" s="3">
         <v>129400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>139900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128600</v>
       </c>
-      <c r="G21" s="3">
-        <v>104200</v>
-      </c>
       <c r="H21" s="3">
+        <v>96400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-74900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>318700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>160300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3300</v>
       </c>
       <c r="J22" s="3">
         <v>3300</v>
       </c>
       <c r="K22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>99400</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>115300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1392,108 +1431,117 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E23" s="3">
         <v>85200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>74200</v>
       </c>
-      <c r="G23" s="3">
-        <v>46200</v>
-      </c>
       <c r="H23" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-122300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>74600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>231800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>82900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-34200</v>
       </c>
-      <c r="G24" s="3">
-        <v>10600</v>
-      </c>
       <c r="H24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-28800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>115300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E26" s="3">
         <v>90100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>108400</v>
       </c>
-      <c r="G26" s="3">
-        <v>35600</v>
-      </c>
       <c r="H26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-93500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>62100</v>
       </c>
       <c r="L26" s="3">
         <v>62100</v>
       </c>
       <c r="M26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="N26" s="3">
         <v>37900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>154600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>64100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E27" s="3">
         <v>90100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>108400</v>
       </c>
-      <c r="G27" s="3">
-        <v>35600</v>
-      </c>
       <c r="H27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-93500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>62100</v>
       </c>
       <c r="L27" s="3">
         <v>62100</v>
       </c>
       <c r="M27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="N27" s="3">
         <v>37900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>154600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,31 +1749,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>12700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1908,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1017100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E33" s="3">
         <v>90100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-93500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>62100</v>
       </c>
       <c r="L33" s="3">
         <v>62100</v>
       </c>
       <c r="M33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="N33" s="3">
         <v>37900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E35" s="3">
         <v>90100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-93500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>62100</v>
       </c>
       <c r="L35" s="3">
         <v>62100</v>
       </c>
       <c r="M35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="N35" s="3">
         <v>37900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44015</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43924</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E41" s="3">
         <v>553900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>441200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>888900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>822400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>353600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>211200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>193200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2273,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,41 +2326,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E43" s="3">
         <v>355000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>358100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>361000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>365400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>306400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>365900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>443600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>456400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3602200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,41 +2379,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>274300</v>
+      </c>
+      <c r="E44" s="3">
         <v>311500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>283200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>266900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>257500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>280800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>312300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>277900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>278400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1624300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,41 +2432,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>545900</v>
+      </c>
+      <c r="E45" s="3">
         <v>81300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>108100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1328700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,41 +2485,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1766400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1301700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1163300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1590500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1416200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1517700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1114200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1001900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>978500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6009000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2538,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2457,29 +2561,29 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>22300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>4938800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2487,41 +2591,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>416900</v>
+      </c>
+      <c r="E48" s="3">
         <v>457800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>451200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>468300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>473900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>483200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>482600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>490400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>484900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17317700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,41 +2644,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4204600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4574800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4580400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4689900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4642900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4589100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4551100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4591600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4574300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>623900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2697,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,41 +2803,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E52" s="3">
         <v>147000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>626800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2856,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,41 +2909,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6562000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6481300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6321900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6876000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6605700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6665200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6240900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6158300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6118400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E57" s="3">
         <v>209400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>204600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>235100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>161100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>130900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>194800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>208000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>181400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,38 +3057,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E58" s="3">
         <v>421500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>416400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>886800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>253500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2977,41 +3110,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>671500</v>
+      </c>
+      <c r="E59" s="3">
         <v>532300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>515300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>562800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>514000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>445800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>410600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>497300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>427300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5070100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,41 +3163,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1269200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1163200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1136300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1684700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>678900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>830200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>608900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>709200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>760700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,41 +3216,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>887800</v>
+      </c>
+      <c r="E61" s="3">
         <v>893200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>892200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>907700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1755500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1722200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1546700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1321000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1304500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3127,41 +3269,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>457900</v>
+      </c>
+      <c r="E62" s="3">
         <v>556000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>546100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>562600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>611500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>616900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>599000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>585300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>539200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>329200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3322,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2615300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2612800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2575000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3155400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3048100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3171800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2757200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2618100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2607100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,38 +3767,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>381100</v>
+      </c>
+      <c r="E72" s="3">
         <v>288200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>198100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>126400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>75900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>93100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3946700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3868500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3746900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3720600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3557600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3493400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3483700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3540200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3511300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44015</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43924</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E81" s="3">
         <v>90100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-93500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>62100</v>
       </c>
       <c r="L81" s="3">
         <v>62100</v>
       </c>
       <c r="M81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="N81" s="3">
         <v>37900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E83" s="3">
         <v>30600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E89" s="3">
         <v>120700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>193400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>148100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-62300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>187000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>281300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-61800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-225200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>210500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,49 +4611,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>8900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-225200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4442,8 +4662,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>58900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,44 +5054,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-469600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-244400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>474600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>258500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-148100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>24300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,43 +5107,46 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4912,43 +5160,46 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E102" s="3">
         <v>112700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-447700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>188100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-121600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>468800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>142400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4960,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,253 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44015</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43924</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>651800</v>
+      </c>
+      <c r="E8" s="3">
         <v>607300</v>
       </c>
-      <c r="E8" s="3">
-        <v>740100</v>
-      </c>
       <c r="F8" s="3">
+        <v>1249800</v>
+      </c>
+      <c r="G8" s="3">
         <v>709200</v>
       </c>
-      <c r="G8" s="3">
-        <v>732300</v>
-      </c>
       <c r="H8" s="3">
+        <v>616300</v>
+      </c>
+      <c r="I8" s="3">
         <v>547200</v>
       </c>
-      <c r="I8" s="3">
-        <v>362000</v>
-      </c>
       <c r="J8" s="3">
+        <v>765600</v>
+      </c>
+      <c r="K8" s="3">
         <v>547200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>720500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>659300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2083900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1438500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>679500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E9" s="3">
         <v>250000</v>
       </c>
-      <c r="E9" s="3">
-        <v>325300</v>
-      </c>
       <c r="F9" s="3">
+        <v>516900</v>
+      </c>
+      <c r="G9" s="3">
         <v>309100</v>
       </c>
-      <c r="G9" s="3">
-        <v>334200</v>
-      </c>
       <c r="H9" s="3">
+        <v>268300</v>
+      </c>
+      <c r="I9" s="3">
         <v>235500</v>
       </c>
-      <c r="I9" s="3">
-        <v>187600</v>
-      </c>
       <c r="J9" s="3">
+        <v>352200</v>
+      </c>
+      <c r="K9" s="3">
         <v>266000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>331100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>292300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>440700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>296600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>298600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E10" s="3">
         <v>357300</v>
       </c>
-      <c r="E10" s="3">
-        <v>414800</v>
-      </c>
       <c r="F10" s="3">
+        <v>732900</v>
+      </c>
+      <c r="G10" s="3">
         <v>400100</v>
       </c>
-      <c r="G10" s="3">
-        <v>398100</v>
-      </c>
       <c r="H10" s="3">
+        <v>348000</v>
+      </c>
+      <c r="I10" s="3">
         <v>311700</v>
       </c>
-      <c r="I10" s="3">
-        <v>174400</v>
-      </c>
       <c r="J10" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K10" s="3">
         <v>281200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>389400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>367000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1643200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>363100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1436200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>380900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,61 +931,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
-        <v>30300</v>
-      </c>
       <c r="F12" s="3">
+        <v>51700</v>
+      </c>
+      <c r="G12" s="3">
         <v>30100</v>
       </c>
-      <c r="G12" s="3">
-        <v>27100</v>
-      </c>
       <c r="H12" s="3">
+        <v>23200</v>
+      </c>
+      <c r="I12" s="3">
         <v>20000</v>
       </c>
-      <c r="I12" s="3">
-        <v>16500</v>
-      </c>
       <c r="J12" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K12" s="3">
         <v>34700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>139100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42300</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,50 +1041,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E14" s="3">
         <v>8600</v>
       </c>
-      <c r="E14" s="3">
-        <v>7700</v>
-      </c>
       <c r="F14" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G14" s="3">
         <v>8100</v>
       </c>
-      <c r="G14" s="3">
-        <v>43300</v>
-      </c>
       <c r="H14" s="3">
+        <v>57400</v>
+      </c>
+      <c r="I14" s="3">
         <v>39100</v>
       </c>
-      <c r="I14" s="3">
-        <v>68900</v>
-      </c>
       <c r="J14" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K14" s="3">
         <v>12300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>1950500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>1943600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1077,8 +1097,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1174,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>605700</v>
+      </c>
+      <c r="E17" s="3">
         <v>525600</v>
       </c>
-      <c r="E17" s="3">
-        <v>641600</v>
-      </c>
       <c r="F17" s="3">
+        <v>1071400</v>
+      </c>
+      <c r="G17" s="3">
         <v>600900</v>
       </c>
-      <c r="G17" s="3">
-        <v>635500</v>
-      </c>
       <c r="H17" s="3">
+        <v>542800</v>
+      </c>
+      <c r="I17" s="3">
         <v>485600</v>
       </c>
-      <c r="I17" s="3">
-        <v>469900</v>
-      </c>
       <c r="J17" s="3">
+        <v>857200</v>
+      </c>
+      <c r="K17" s="3">
         <v>572200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>642500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>580600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>735600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>614800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>598100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E18" s="3">
         <v>81700</v>
       </c>
-      <c r="E18" s="3">
-        <v>98500</v>
-      </c>
       <c r="F18" s="3">
+        <v>178400</v>
+      </c>
+      <c r="G18" s="3">
         <v>108300</v>
       </c>
-      <c r="G18" s="3">
-        <v>96800</v>
-      </c>
       <c r="H18" s="3">
+        <v>73500</v>
+      </c>
+      <c r="I18" s="3">
         <v>61600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-107900</v>
-      </c>
       <c r="J18" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1348300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1323200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,158 +1308,165 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1017100</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1017100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E21" s="3">
         <v>112000</v>
       </c>
-      <c r="E21" s="3">
-        <v>129400</v>
-      </c>
       <c r="F21" s="3">
+        <v>240900</v>
+      </c>
+      <c r="G21" s="3">
         <v>139900</v>
       </c>
-      <c r="G21" s="3">
-        <v>128600</v>
-      </c>
       <c r="H21" s="3">
+        <v>105200</v>
+      </c>
+      <c r="I21" s="3">
         <v>96400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-74900</v>
-      </c>
       <c r="J21" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K21" s="3">
         <v>7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>156200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>318700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>160300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
-        <v>13600</v>
-      </c>
       <c r="F22" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23400</v>
       </c>
-      <c r="I22" s="3">
-        <v>14500</v>
-      </c>
       <c r="J22" s="3">
-        <v>3300</v>
+        <v>17800</v>
       </c>
       <c r="K22" s="3">
         <v>3300</v>
       </c>
       <c r="L22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>99400</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>115300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1434,114 +1474,123 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>69900</v>
       </c>
-      <c r="E23" s="3">
-        <v>85200</v>
-      </c>
       <c r="F23" s="3">
+        <v>147400</v>
+      </c>
+      <c r="G23" s="3">
         <v>90600</v>
       </c>
-      <c r="G23" s="3">
-        <v>74200</v>
-      </c>
       <c r="H23" s="3">
+        <v>50800</v>
+      </c>
+      <c r="I23" s="3">
         <v>38400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-122300</v>
-      </c>
       <c r="J23" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>231800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
         <v>82900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10300</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G24" s="3">
         <v>18900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-34200</v>
-      </c>
       <c r="H24" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="I24" s="3">
         <v>14800</v>
       </c>
-      <c r="I24" s="3">
-        <v>-28800</v>
-      </c>
       <c r="J24" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>115300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1642,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E26" s="3">
         <v>80200</v>
       </c>
-      <c r="E26" s="3">
-        <v>90100</v>
-      </c>
       <c r="F26" s="3">
+        <v>140800</v>
+      </c>
+      <c r="G26" s="3">
         <v>71700</v>
       </c>
-      <c r="G26" s="3">
-        <v>108400</v>
-      </c>
       <c r="H26" s="3">
+        <v>91100</v>
+      </c>
+      <c r="I26" s="3">
         <v>23600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-93500</v>
-      </c>
       <c r="J26" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>62100</v>
       </c>
       <c r="M26" s="3">
         <v>62100</v>
       </c>
       <c r="N26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="O26" s="3">
         <v>37900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>154600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>64100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E27" s="3">
         <v>80200</v>
       </c>
-      <c r="E27" s="3">
-        <v>90100</v>
-      </c>
       <c r="F27" s="3">
+        <v>140800</v>
+      </c>
+      <c r="G27" s="3">
         <v>71700</v>
       </c>
-      <c r="G27" s="3">
-        <v>108400</v>
-      </c>
       <c r="H27" s="3">
+        <v>91100</v>
+      </c>
+      <c r="I27" s="3">
         <v>23600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-93500</v>
-      </c>
       <c r="J27" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>62100</v>
       </c>
       <c r="M27" s="3">
         <v>62100</v>
       </c>
       <c r="N27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="O27" s="3">
         <v>37900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>154600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>64100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,34 +1810,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E29" s="3">
         <v>12700</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3">
+        <v>21000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I29" s="3">
         <v>12000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,114 +1978,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1300</v>
-      </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1017100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1017100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E33" s="3">
         <v>92900</v>
       </c>
-      <c r="E33" s="3">
-        <v>90100</v>
-      </c>
       <c r="F33" s="3">
+        <v>161800</v>
+      </c>
+      <c r="G33" s="3">
         <v>71700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>108400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-93500</v>
-      </c>
       <c r="J33" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>62100</v>
       </c>
       <c r="M33" s="3">
         <v>62100</v>
       </c>
       <c r="N33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="O33" s="3">
         <v>37900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>64100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2146,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E35" s="3">
         <v>92900</v>
       </c>
-      <c r="E35" s="3">
-        <v>90100</v>
-      </c>
       <c r="F35" s="3">
+        <v>161800</v>
+      </c>
+      <c r="G35" s="3">
         <v>71700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>108400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-93500</v>
-      </c>
       <c r="J35" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>62100</v>
       </c>
       <c r="M35" s="3">
         <v>62100</v>
       </c>
       <c r="N35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="O35" s="3">
         <v>37900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>64100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44015</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43924</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2309,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1073600</v>
+      </c>
+      <c r="E41" s="3">
         <v>638800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>553900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>441200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>888900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>822400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>353600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>211200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>193200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2363,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,44 +2419,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E43" s="3">
         <v>307400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>355000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>358100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>361000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>365400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>306400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>365900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>443600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>456400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3602200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,44 +2475,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E44" s="3">
         <v>274300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>311500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>283200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>266900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>257500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>280800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>312300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>277900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>278400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1624300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,44 +2531,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E45" s="3">
         <v>545900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>73700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>108100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1328700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,44 +2587,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1835800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1766400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1301700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1163300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1590500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1416200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1517700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1114200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1001900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>978500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6009000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2643,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2564,29 +2669,29 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>22300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>4938800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2594,44 +2699,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E48" s="3">
         <v>416900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>457800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>451200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>468300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>473900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>483200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>482600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>490400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>484900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17317700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,44 +2755,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4178400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4204600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4574800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4580400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4689900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4642900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4589100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4551100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4591600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4574300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>623900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,8 +2811,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,44 +2923,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E52" s="3">
         <v>174100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>626800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2979,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,44 +3035,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6574200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6562000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6481300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6321900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6876000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6605700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6665200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6240900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6158300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6118400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,41 +3137,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E57" s="3">
         <v>171000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>209400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>204600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>235100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>161100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>130900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>194800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>208000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>181400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,41 +3191,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>432400</v>
+      </c>
+      <c r="E58" s="3">
         <v>426700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>421500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>416400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>886800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>253500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>152000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,44 +3247,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E59" s="3">
         <v>671500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>532300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>515300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>562800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>514000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>445800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>410600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>497300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>427300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5070100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,44 +3303,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1269200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1163200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1136300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1684700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>678900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>830200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>608900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>709200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>760700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,44 +3359,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>883400</v>
+      </c>
+      <c r="E61" s="3">
         <v>887800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>893200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>892200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>907700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1755500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1722200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1546700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1321000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1304500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3272,44 +3415,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>424600</v>
+      </c>
+      <c r="E62" s="3">
         <v>457900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>556000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>546100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>562600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>611500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>616900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>599000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>585300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>539200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>329200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3471,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3639,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2516600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2615300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2612800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2575000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3155400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3048100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3171800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2757200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2618100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2607100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3941,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>466900</v>
+      </c>
+      <c r="E72" s="3">
         <v>381100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>288200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>198100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>126400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>75900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>93100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4165,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4057600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3946700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3868500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3746900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3720600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3557600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3493400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3483700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3540200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3511300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4221,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4277,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44015</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43924</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E81" s="3">
         <v>92900</v>
       </c>
-      <c r="E81" s="3">
-        <v>90100</v>
-      </c>
       <c r="F81" s="3">
+        <v>161800</v>
+      </c>
+      <c r="G81" s="3">
         <v>71700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>108400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-93500</v>
-      </c>
       <c r="J81" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>62100</v>
       </c>
       <c r="M81" s="3">
         <v>62100</v>
       </c>
       <c r="N81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="O81" s="3">
         <v>37900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>64100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4418,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E83" s="3">
         <v>30100</v>
       </c>
-      <c r="E83" s="3">
-        <v>30600</v>
-      </c>
       <c r="F83" s="3">
+        <v>61900</v>
+      </c>
+      <c r="G83" s="3">
         <v>31300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3">
-        <v>32900</v>
-      </c>
       <c r="J83" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K83" s="3">
         <v>32000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4752,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E89" s="3">
         <v>88300</v>
       </c>
-      <c r="E89" s="3">
-        <v>120700</v>
-      </c>
       <c r="F89" s="3">
+        <v>137300</v>
+      </c>
+      <c r="G89" s="3">
         <v>16600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>193400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>148100</v>
       </c>
-      <c r="I89" s="3">
-        <v>4700</v>
-      </c>
       <c r="J89" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-62300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>187000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>281300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-61800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-225200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>210500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,52 +4832,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-20200</v>
-      </c>
       <c r="F91" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-7800</v>
-      </c>
       <c r="J91" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>8900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-225200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4665,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4998,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-17300</v>
-      </c>
       <c r="F94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-51400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-62600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>58900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,47 +5300,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
-        <v>6500</v>
-      </c>
       <c r="F100" s="3">
+        <v>-463100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-469600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-244400</v>
       </c>
-      <c r="I100" s="3">
-        <v>474600</v>
-      </c>
       <c r="J100" s="3">
+        <v>733100</v>
+      </c>
+      <c r="K100" s="3">
         <v>258500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>24300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5110,46 +5356,49 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>2800</v>
-      </c>
       <c r="F101" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G101" s="3">
         <v>10800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-15700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-7500</v>
-      </c>
       <c r="J101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5163,46 +5412,49 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>434800</v>
+      </c>
+      <c r="E102" s="3">
         <v>84900</v>
       </c>
-      <c r="E102" s="3">
-        <v>112700</v>
-      </c>
       <c r="F102" s="3">
+        <v>-335000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-447700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>188100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-121600</v>
       </c>
-      <c r="I102" s="3">
-        <v>468800</v>
-      </c>
       <c r="J102" s="3">
+        <v>611200</v>
+      </c>
+      <c r="K102" s="3">
         <v>142400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5214,6 +5466,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,253 +665,266 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43924</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>631400</v>
+      </c>
+      <c r="E8" s="3">
         <v>651800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>607300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1249800</v>
       </c>
-      <c r="G8" s="3">
-        <v>709200</v>
-      </c>
       <c r="H8" s="3">
+        <v>612600</v>
+      </c>
+      <c r="I8" s="3">
         <v>616300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>547200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>765600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>720500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>659300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2083900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>659700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1438500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>679500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E9" s="3">
         <v>268800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>250000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>516900</v>
       </c>
-      <c r="G9" s="3">
-        <v>309100</v>
-      </c>
       <c r="H9" s="3">
+        <v>251300</v>
+      </c>
+      <c r="I9" s="3">
         <v>268300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>235500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>352200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>266000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>331100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>292300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>440700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>296600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>298600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>373800</v>
+      </c>
+      <c r="E10" s="3">
         <v>383000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>357300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>732900</v>
       </c>
-      <c r="G10" s="3">
-        <v>400100</v>
-      </c>
       <c r="H10" s="3">
+        <v>361300</v>
+      </c>
+      <c r="I10" s="3">
         <v>348000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>311700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>413400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>281200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>389400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>367000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1643200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>363100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1436200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>380900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51700</v>
       </c>
-      <c r="G12" s="3">
-        <v>30100</v>
-      </c>
       <c r="H12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="I12" s="3">
         <v>23200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>139100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,53 +1061,56 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>58800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15200</v>
       </c>
-      <c r="G14" s="3">
-        <v>8100</v>
-      </c>
       <c r="H14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I14" s="3">
         <v>57400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>1950500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1943600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1100,8 +1120,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>539900</v>
+      </c>
+      <c r="E17" s="3">
         <v>605700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>525600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1071400</v>
       </c>
-      <c r="G17" s="3">
-        <v>600900</v>
-      </c>
       <c r="H17" s="3">
+        <v>517500</v>
+      </c>
+      <c r="I17" s="3">
         <v>542800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>485600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>857200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>572200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>642500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>580600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>735600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>614800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>598100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E18" s="3">
         <v>46100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>178400</v>
       </c>
-      <c r="G18" s="3">
-        <v>108300</v>
-      </c>
       <c r="H18" s="3">
+        <v>95100</v>
+      </c>
+      <c r="I18" s="3">
         <v>73500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-91600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1348300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1323200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,167 +1342,174 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E21" s="3">
         <v>79300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>240900</v>
       </c>
-      <c r="G21" s="3">
-        <v>139900</v>
-      </c>
       <c r="H21" s="3">
+        <v>126700</v>
+      </c>
+      <c r="I21" s="3">
         <v>105200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>96400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>156200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>318700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>77300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>160300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
         <v>10500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3300</v>
       </c>
       <c r="L22" s="3">
         <v>3300</v>
       </c>
       <c r="M22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>99400</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>115300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1477,120 +1517,129 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E23" s="3">
         <v>37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>69900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147400</v>
       </c>
-      <c r="G23" s="3">
-        <v>90600</v>
-      </c>
       <c r="H23" s="3">
+        <v>77400</v>
+      </c>
+      <c r="I23" s="3">
         <v>50800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-109200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>231800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
         <v>82900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
-        <v>18900</v>
-      </c>
       <c r="H24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-40300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-37000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>115300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E26" s="3">
         <v>42500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140800</v>
       </c>
-      <c r="G26" s="3">
-        <v>71700</v>
-      </c>
       <c r="H26" s="3">
+        <v>61800</v>
+      </c>
+      <c r="I26" s="3">
         <v>91100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-72200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>62100</v>
       </c>
       <c r="N26" s="3">
         <v>62100</v>
       </c>
       <c r="O26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="P26" s="3">
         <v>37900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>154600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>64100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E27" s="3">
         <v>42500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140800</v>
       </c>
-      <c r="G27" s="3">
-        <v>71700</v>
-      </c>
       <c r="H27" s="3">
+        <v>61800</v>
+      </c>
+      <c r="I27" s="3">
         <v>91100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-72200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>62100</v>
       </c>
       <c r="N27" s="3">
         <v>62100</v>
       </c>
       <c r="O27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="P27" s="3">
         <v>37900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>154600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>64100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,37 +1871,40 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E29" s="3">
         <v>43300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>12700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>21000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I29" s="3">
         <v>17300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>12000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-38500</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1869,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1017100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E33" s="3">
         <v>85800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>92900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>161800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>108400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-110700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>62100</v>
       </c>
       <c r="N33" s="3">
         <v>62100</v>
       </c>
       <c r="O33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="P33" s="3">
         <v>37900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>154600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E35" s="3">
         <v>85800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>92900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>161800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>108400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-110700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>62100</v>
       </c>
       <c r="N35" s="3">
         <v>62100</v>
       </c>
       <c r="O35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="P35" s="3">
         <v>37900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>154600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44015</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43924</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,44 +2396,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1078300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1073600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>638800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>553900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>441200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>888900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>822400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>353600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>211200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>193200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2453,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,47 +2512,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E43" s="3">
         <v>331900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>307400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>355000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>358100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>361000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>365400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>306400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>365900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>443600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>456400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3602200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,47 +2571,50 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>280400</v>
+      </c>
+      <c r="E44" s="3">
         <v>263800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>274300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>311500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>283200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>266900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>257500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>280800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>312300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>277900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>278400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1624300</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,47 +2630,50 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E45" s="3">
         <v>166500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>545900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>80800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>73700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>92500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1328700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,47 +2689,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1908900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1835800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1766400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1301700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1163300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1590500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1416200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1517700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1114200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1001900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>978500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6009000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2646,55 +2748,58 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>22300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>4938800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2702,47 +2807,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>391200</v>
+      </c>
+      <c r="E48" s="3">
         <v>392200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>416900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>457800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>451200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>468300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>473900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>483200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>482600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>490400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>484900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17317700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2758,47 +2866,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4097300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4178400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4204600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4574800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4580400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4689900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4642900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4589100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4551100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4591600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4574300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>623900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +2925,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,47 +3043,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E52" s="3">
         <v>167800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>174100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>147000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>127300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>626800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,8 +3102,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,47 +3161,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6572300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6574200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6562000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6481300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6321900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6876000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6605700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6665200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6240900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6158300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6118400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3220,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,44 +3268,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E57" s="3">
         <v>185800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>171000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>209400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>204600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>235100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>161100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>130900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>194800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>208000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>181400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,44 +3325,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>507800</v>
+      </c>
+      <c r="E58" s="3">
         <v>432400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>426700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>421500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>416400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>886800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>253500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>152000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3250,47 +3384,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>567300</v>
+      </c>
+      <c r="E59" s="3">
         <v>590000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>671500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>532300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>515300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>562800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>514000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>445800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>410600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>497300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>427300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5070100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,47 +3443,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1255700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1208200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1269200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1163200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1136300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1684700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>678900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>830200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>608900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>709200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>760700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3362,47 +3502,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>876900</v>
+      </c>
+      <c r="E61" s="3">
         <v>883400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>887800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>893200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>892200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>907700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1755500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1722200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1546700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1321000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1304500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3418,47 +3561,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>408800</v>
+      </c>
+      <c r="E62" s="3">
         <v>424600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>457900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>556000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>546100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>562600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>611500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>616900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>599000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>585300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>539200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>329200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3620,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,44 +3797,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2541400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2516600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2615300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2612800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2575000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3155400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3048100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3171800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2757200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2618100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2607100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +3856,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3888,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,44 +4115,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>563200</v>
+      </c>
+      <c r="E72" s="3">
         <v>466900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>381100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>288200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>198100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>126400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>75900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>93100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4174,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,44 +4351,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4030900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4057600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3946700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3868500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3746900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3720600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3557600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3493400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3483700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3540200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3511300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4410,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44015</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43924</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E81" s="3">
         <v>85800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>92900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>161800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>108400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-110700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>62100</v>
       </c>
       <c r="N81" s="3">
         <v>62100</v>
       </c>
       <c r="O81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="P81" s="3">
         <v>37900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>154600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E83" s="3">
         <v>31600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>136000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>88300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>137300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>193400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>148100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-57600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-62300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>187000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>281300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-61800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-225200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>210500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,55 +5053,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>8900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-225200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4889,8 +5110,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>288600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-62600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>58900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5135,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,50 +5546,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-463100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-469600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-244400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>733100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>258500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-148100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>24300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,49 +5605,52 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E101" s="3">
         <v>8400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5415,49 +5664,52 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>434800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>84900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-335000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-447700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>188100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-121600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>611200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>142400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5469,6 +5721,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,266 +665,278 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43924</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>645800</v>
+      </c>
+      <c r="E8" s="3">
         <v>631400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>651800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>607300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1249800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>612600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>616300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>547200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>765600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>547200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>720500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2083900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>659700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1438500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>679500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E9" s="3">
         <v>257600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>250000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>516900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>251300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>268300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>235500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>352200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>266000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>331100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>292300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>440700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>296600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>298600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>376700</v>
+      </c>
+      <c r="E10" s="3">
         <v>373800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>383000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>357300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>732900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>361300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>348000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>311700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>413400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>281200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>389400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>367000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1643200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>363100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1436200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>380900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,67 +958,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E12" s="3">
         <v>24400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>139100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>43300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,56 +1080,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>57400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>1950500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>1943600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1123,8 +1142,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,8 +1204,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1227,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>580600</v>
+      </c>
+      <c r="E17" s="3">
         <v>539900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>605700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>525600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1071400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>517500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>542800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>485600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>857200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>572200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>642500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>580600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>735600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>614800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>115300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>598100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E18" s="3">
         <v>91500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>178400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>61600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-91600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1348300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1323200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1375,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,167 +1385,173 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E21" s="3">
         <v>123100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>79300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>240900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>126700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>156200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>318700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>160300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3300</v>
       </c>
       <c r="M22" s="3">
         <v>3300</v>
       </c>
       <c r="N22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>99400</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>115300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1520,126 +1559,135 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E23" s="3">
         <v>85900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>77400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>50800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-109200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>231800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
         <v>82900</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E24" s="3">
         <v>15500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-40300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-37000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>115300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18800</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,126 +1745,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E26" s="3">
         <v>70400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>140800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>61800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>91100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>62100</v>
       </c>
       <c r="O26" s="3">
         <v>62100</v>
       </c>
       <c r="P26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>37900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>154600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>64100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E27" s="3">
         <v>70400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>80200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>140800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>61800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>91100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-72200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>62100</v>
       </c>
       <c r="O27" s="3">
         <v>62100</v>
       </c>
       <c r="P27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>37900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>154600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>64100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,40 +1931,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E29" s="3">
         <v>4500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>43300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>12700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>21000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>9900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>17300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>12000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-38500</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1933,8 +1993,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,8 +2117,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2060,117 +2129,123 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1017100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E33" s="3">
         <v>74900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>85800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>92900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>161800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>108400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-110700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>62100</v>
       </c>
       <c r="O33" s="3">
         <v>62100</v>
       </c>
       <c r="P33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>37900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>154600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,131 +2303,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E35" s="3">
         <v>74900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>85800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>92900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>161800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>108400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-110700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>62100</v>
       </c>
       <c r="O35" s="3">
         <v>62100</v>
       </c>
       <c r="P35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>37900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>154600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44015</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43924</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,47 +2482,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1078300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1073600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>638800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>553900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>441200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>888900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>822400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>353600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>211200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>193200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2542,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2515,50 +2604,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372800</v>
+      </c>
+      <c r="E43" s="3">
         <v>342600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>331900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>307400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>355000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>358100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>361000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>365400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>306400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>365900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>443600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>456400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3602200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,50 +2666,53 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E44" s="3">
         <v>280400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>263800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>274300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>311500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>283200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>266900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>257500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>280800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>312300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>277900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>278400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1624300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2633,50 +2728,53 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E45" s="3">
         <v>207600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>166500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>545900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>80800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>92500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1328700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,50 +2790,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1388300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1908900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1835800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1766400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1301700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1163300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1590500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1416200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1517700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1114200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1001900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>978500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6009000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2852,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2777,32 +2881,32 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>22300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>4938800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2810,50 +2914,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>394600</v>
+      </c>
+      <c r="E48" s="3">
         <v>391200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>392200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>416900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>457800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>451200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>468300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>473900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>483200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>482600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>490400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>484900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17317700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2869,50 +2976,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4465700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4097300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4178400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4204600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4574800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4580400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4689900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4642900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4589100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4551100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4591600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4574300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>623900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3038,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,50 +3162,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E52" s="3">
         <v>174900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>167800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>174100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>147000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>127000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>70700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>74400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>626800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3105,8 +3224,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,50 +3286,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6461000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6572300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6574200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6562000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6481300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6321900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6876000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6605700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6665200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6240900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6158300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6118400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3348,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,47 +3398,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E57" s="3">
         <v>180600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>185800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>171000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>209400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>204600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>235100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>161100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>130900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>194800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>208000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>181400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,47 +3458,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>508600</v>
+      </c>
+      <c r="E58" s="3">
         <v>507800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>432400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>426700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>421500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>416400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>886800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>253500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>152000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,50 +3520,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564900</v>
+      </c>
+      <c r="E59" s="3">
         <v>567300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>590000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>671500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>532300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>515300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>562800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>514000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>445800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>410600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>497300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>427300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5070100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,50 +3582,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1256200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1255700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1208200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1269200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1163200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1136300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1684700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>678900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>830200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>608900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>709200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>760700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3505,50 +3644,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>864100</v>
+      </c>
+      <c r="E61" s="3">
         <v>876900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>883400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>887800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>893200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>892200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>907700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1755500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1722200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1546700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1321000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1304500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3564,50 +3706,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>324700</v>
+      </c>
+      <c r="E62" s="3">
         <v>408800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>424600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>457900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>556000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>546100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>562600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>611500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>616900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>599000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>585300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>539200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>329200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,8 +3768,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,47 +3954,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2445000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2541400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2516600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2615300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2612800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2575000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3155400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3048100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3171800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2757200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2618100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2607100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3859,8 +4016,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,47 +4288,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>610300</v>
+      </c>
+      <c r="E72" s="3">
         <v>563200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>466900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>381100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>288200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>198100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>126400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>75900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>93100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4177,8 +4350,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,47 +4536,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4016000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4030900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4057600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3946700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3868500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3746900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3720600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3557600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3493400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3483700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3540200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3511300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,8 +4598,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,131 +4660,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44015</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43924</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E81" s="3">
         <v>74900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>85800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>92900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>161800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>108400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-110700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>62100</v>
       </c>
       <c r="O81" s="3">
         <v>62100</v>
       </c>
       <c r="P81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>37900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>154600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,67 +4815,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E83" s="3">
         <v>31300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>64900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>77300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,67 +5185,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>136000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>88300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>137300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>193400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>148100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-57600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-62300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>187000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>281300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-61800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-225200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>210500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,58 +5273,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>8900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-225200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5113,8 +5333,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,67 +5457,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-591600</v>
+      </c>
+      <c r="E94" s="3">
         <v>5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>288600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-62600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>58900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,8 +5545,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5372,8 +5605,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,53 +5791,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-463100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-469600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-244400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>733100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>258500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-148100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>24300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5608,52 +5853,55 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5667,52 +5915,55 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-555200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>434800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>84900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-335000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-447700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>188100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-121600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>611200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>142400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5724,6 +5975,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,278 +665,291 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43924</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>631100</v>
+      </c>
+      <c r="E8" s="3">
         <v>645800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>631400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>651800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>607300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1249800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>612600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>616300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>765600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>547200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>720500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>659300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2083900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>659700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1438500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>679500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E9" s="3">
         <v>269100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>257600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>250000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>516900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>251300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>268300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>235500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>352200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>266000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>331100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>292300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>440700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>296600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>298600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>368100</v>
+      </c>
+      <c r="E10" s="3">
         <v>376700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>373800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>383000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>357300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>732900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>361300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>348000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>311700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>413400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>281200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>389400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>367000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1643200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>363100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1436200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>380900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,70 +972,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>139100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>43300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42300</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,59 +1100,62 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E14" s="3">
         <v>14800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>58800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>57400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>51900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1950500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>1943600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1145,8 +1165,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>556600</v>
+      </c>
+      <c r="E17" s="3">
         <v>580600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>539900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>605700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>525600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1071400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>517500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>542800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>485600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>857200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>572200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>642500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>580600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>735600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>614800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>115300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>598100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E18" s="3">
         <v>65200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>178400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>61600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-91600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1348300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1323200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1409,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1388,173 +1422,179 @@
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E21" s="3">
         <v>100600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>123100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>79300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>112000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>240900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>126700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>105200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>109300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>156200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>318700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>160300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3300</v>
       </c>
       <c r="N22" s="3">
         <v>3300</v>
       </c>
       <c r="O22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>99400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>115300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1562,132 +1602,141 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E23" s="3">
         <v>59100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>85900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>69900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>77400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>50800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-109200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>78700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>231800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3">
         <v>82900</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E24" s="3">
         <v>14600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-40300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-37000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>115300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E26" s="3">
         <v>44500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>70400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>80200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>61800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-72200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>62100</v>
       </c>
       <c r="P26" s="3">
         <v>62100</v>
       </c>
       <c r="Q26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="R26" s="3">
         <v>37900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>154600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>64100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E27" s="3">
         <v>44500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>70400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>80200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>140800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>91100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-72200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>62100</v>
       </c>
       <c r="P27" s="3">
         <v>62100</v>
       </c>
       <c r="Q27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="R27" s="3">
         <v>37900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>154600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>64100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,43 +1992,46 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E29" s="3">
         <v>2600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>4500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>43300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>12700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>21000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>17300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-38500</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1996,8 +2057,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,8 +2187,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2132,120 +2202,126 @@
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1017100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E33" s="3">
         <v>47100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>85800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>92900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>161800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>108400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-110700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>62100</v>
       </c>
       <c r="P33" s="3">
         <v>62100</v>
       </c>
       <c r="Q33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="R33" s="3">
         <v>37900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>154600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>64100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E35" s="3">
         <v>47100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>85800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>92900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>161800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>108400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-110700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>62100</v>
       </c>
       <c r="P35" s="3">
         <v>62100</v>
       </c>
       <c r="Q35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="R35" s="3">
         <v>37900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>154600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>64100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43924</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,50 +2569,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>568500</v>
+      </c>
+      <c r="E41" s="3">
         <v>523100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1078300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1073600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>638800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>553900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>441200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>888900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>822400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>353600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>211200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>193200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2632,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,53 +2697,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E43" s="3">
         <v>372800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>342600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>331900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>307400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>355000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>358100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>361000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>365400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>306400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>365900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>443600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>456400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3602200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2669,53 +2762,56 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>291300</v>
+      </c>
+      <c r="E44" s="3">
         <v>286000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>280400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>263800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>274300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>311500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>283200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>266900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>257500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>280800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>312300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>277900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>278400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1624300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,53 +2827,56 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E45" s="3">
         <v>206400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>207600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>166500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>545900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>80800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>82400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1328700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,53 +2892,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1366000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1388300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1908900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1835800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1766400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1301700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1163300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1590500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1416200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1517700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1114200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1001900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>978500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6009000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +2957,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2884,32 +2989,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>22300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4938800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2917,53 +3022,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>409300</v>
+      </c>
+      <c r="E48" s="3">
         <v>394600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>391200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>392200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>416900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>457800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>451200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>468300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>473900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>483200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>482600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>490400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>484900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17317700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,53 +3087,56 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4463400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4465700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4097300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4178400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4204600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4574800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4580400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4689900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4642900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4589100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4551100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4591600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4574300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>623900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3041,8 +3152,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,53 +3282,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E52" s="3">
         <v>212400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>174900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>167800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>147000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>626800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3347,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,53 +3412,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6411900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6461000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6572300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6574200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6562000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6481300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6321900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6876000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6605700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6665200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6240900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6158300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6118400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +3477,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,50 +3529,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E57" s="3">
         <v>182700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>180600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>185800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>171000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>209400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>204600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>235100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>161100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>130900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>194800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>208000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>181400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,50 +3592,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>579300</v>
+      </c>
+      <c r="E58" s="3">
         <v>508600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>507800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>432400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>426700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>421500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>416400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>886800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>253500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>152000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,53 +3657,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E59" s="3">
         <v>564900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>567300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>590000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>671500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>532300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>515300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>562800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>514000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>445800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>410600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>497300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>427300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5070100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3585,53 +3722,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1256200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1255700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1208200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1269200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1163200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1136300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1684700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>678900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>830200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>608900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>709200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>760700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,53 +3787,56 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>851600</v>
+      </c>
+      <c r="E61" s="3">
         <v>864100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>876900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>883400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>887800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>893200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>892200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>907700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1755500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1722200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1546700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1321000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1304500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3709,53 +3852,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E62" s="3">
         <v>324700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>408800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>424600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>457900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>556000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>546100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>562600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>611500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>616900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>599000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>585300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>539200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>329200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3771,8 +3917,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,50 +4112,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2454000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2445000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2541400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2516600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2615300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2612800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2575000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3155400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3048100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3171800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2757200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2618100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2607100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4019,8 +4177,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,50 +4462,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>657900</v>
+      </c>
+      <c r="E72" s="3">
         <v>610300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>563200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>466900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>381100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>288200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>198100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>126400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>75900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>93100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4353,8 +4527,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,50 +4722,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3957900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4016000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4030900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4057600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3946700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3868500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3746900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3720600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3557600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3493400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3483700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3540200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3511300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4601,8 +4787,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43924</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E81" s="3">
         <v>47100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>85800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>92900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>161800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>108400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-110700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>62100</v>
       </c>
       <c r="P81" s="3">
         <v>62100</v>
       </c>
       <c r="Q81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="R81" s="3">
         <v>37900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>154600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>64100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E83" s="3">
         <v>35100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>61900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>77300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E89" s="3">
         <v>22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>136000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>137300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>193400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>148100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-57600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-62300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>187000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>281300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-225200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>210500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,61 +5494,62 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>8900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-225200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5336,8 +5557,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-591600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>288600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-62600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>58900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5608,8 +5842,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,56 +6037,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-463100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-469600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-244400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>733100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>258500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-148100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>24300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5856,55 +6102,58 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E101" s="3">
         <v>12400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5918,55 +6167,58 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-555200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>434800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>84900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-335000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-447700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>188100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-121600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>611200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>142400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5978,6 +6230,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,303 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44015</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43924</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>660800</v>
+      </c>
+      <c r="E8" s="3">
         <v>631100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>645800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>631400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>651800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>607300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1249800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>612600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>616300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>547200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>765600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>547200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>720500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>659300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2083900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>659700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1438500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>679500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E9" s="3">
         <v>263000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>269100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>257600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>250000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>516900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>251300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>268300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>235500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>352200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>266000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>331100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>292300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>440700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>296600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>298600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>374500</v>
+      </c>
+      <c r="E10" s="3">
         <v>368100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>373800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>383000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>357300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>732900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>361300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>348000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>311700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>413400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>281200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>389400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>367000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1643200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>363100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1436200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>380900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,73 +985,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>35400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>139100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>43300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42300</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,62 +1119,65 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>58800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>57400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>51900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>1950500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
         <v>1943600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1168,8 +1187,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>572800</v>
+      </c>
+      <c r="E17" s="3">
         <v>556600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>580600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>539900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>605700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>525600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1071400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>517500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>542800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>485600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>857200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>572200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>642500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>580600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>735600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>614800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>115300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>598100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E18" s="3">
         <v>74500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>65200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>91500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>81700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>178400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-91600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1348300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1323200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,13 +1442,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1425,179 +1458,185 @@
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E21" s="3">
         <v>110500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>123100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>112000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>240900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>126700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>109300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>156200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>318700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>160300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E22" s="3">
         <v>11600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3300</v>
       </c>
       <c r="O22" s="3">
         <v>3300</v>
       </c>
       <c r="P22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>99400</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>115300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1605,138 +1644,147 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E23" s="3">
         <v>63200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>59100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>85900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>77400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-109200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>78700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>231800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3">
         <v>82900</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>13600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-40300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-37000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>115300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E26" s="3">
         <v>49600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>70400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>80200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>140800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>61800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>62100</v>
       </c>
       <c r="Q26" s="3">
         <v>62100</v>
       </c>
       <c r="R26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="S26" s="3">
         <v>37900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>154600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>64100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E27" s="3">
         <v>49600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>70400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>80200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>140800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>62100</v>
       </c>
       <c r="Q27" s="3">
         <v>62100</v>
       </c>
       <c r="R27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="S27" s="3">
         <v>37900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>154600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>64100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,46 +2052,49 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>4500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>43300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>12700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>21000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>17300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>12000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-38500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2060,8 +2120,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,13 +2256,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-2200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -2205,123 +2274,129 @@
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1017100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E33" s="3">
         <v>47600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>74900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>85800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>92900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>161800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>108400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-110700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>62100</v>
       </c>
       <c r="Q33" s="3">
         <v>62100</v>
       </c>
       <c r="R33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="S33" s="3">
         <v>37900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>154600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>64100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E35" s="3">
         <v>47600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>74900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>85800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>92900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>161800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>108400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-110700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>62100</v>
       </c>
       <c r="Q35" s="3">
         <v>62100</v>
       </c>
       <c r="R35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="S35" s="3">
         <v>37900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>154600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>64100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44015</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43924</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,53 +2655,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>606900</v>
+      </c>
+      <c r="E41" s="3">
         <v>568500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>523100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1078300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1073600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>638800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>553900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>441200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>888900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>822400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>353600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>211200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>193200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,8 +2721,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,56 +2789,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E43" s="3">
         <v>392200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>372800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>342600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>331900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>307400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>355000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>358100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>361000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>365400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>306400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>365900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>443600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>456400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3602200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,56 +2857,59 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E44" s="3">
         <v>291300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>286000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>280400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>263800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>274300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>311500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>283200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>266900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>257500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>280800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>312300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>277900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>278400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1624300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2830,56 +2925,59 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E45" s="3">
         <v>114000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>206400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>207600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>166500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>545900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>92500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1328700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,56 +2993,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1424600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1366000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1388300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1908900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1835800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1766400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1301700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1163300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1590500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1416200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1517700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1114200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1001900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>978500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6009000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,8 +3061,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2992,32 +3096,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>22300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>4938800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3025,56 +3129,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E48" s="3">
         <v>409300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>394600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>391200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>392200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>416900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>457800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>451200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>468300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>473900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>483200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>482600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>490400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>484900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17317700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3090,56 +3197,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4583300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4463400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4465700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4097300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4178400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4204600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4574800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4580400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4689900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4642900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4589100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4551100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4591600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4574300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>623900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3155,8 +3265,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,56 +3401,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E52" s="3">
         <v>173200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>212400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>174900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>174100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>626800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,8 +3469,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,56 +3537,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6587000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6411900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6461000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6572300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6574200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6562000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6481300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6321900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6876000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6605700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6665200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6240900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6158300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6118400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3480,8 +3605,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,53 +3659,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>228300</v>
+      </c>
+      <c r="E57" s="3">
         <v>190000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>182700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>180600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>185800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>171000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>209400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>204600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>235100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>161100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>130900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>194800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>208000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>181400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,53 +3725,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E58" s="3">
         <v>579300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>508600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>507800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>432400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>426700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>421500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>416400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>886800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>253500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>152000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,56 +3793,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>498400</v>
+      </c>
+      <c r="E59" s="3">
         <v>489000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>564900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>567300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>590000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>671500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>532300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>515300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>562800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>514000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>445800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>410600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>497300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>427300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5070100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3725,56 +3861,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1236700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1258300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1256200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1255700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1208200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1269200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1163200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1136300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1684700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>678900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>830200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>608900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>709200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>760700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3790,56 +3929,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>870700</v>
+      </c>
+      <c r="E61" s="3">
         <v>851600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>864100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>876900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>883400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>887800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>893200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>892200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>907700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1755500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1722200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1546700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1321000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1304500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3855,56 +3997,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272700</v>
+      </c>
+      <c r="E62" s="3">
         <v>344100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>324700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>408800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>424600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>457900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>556000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>546100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>562600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>611500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>616900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>599000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>585300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>539200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>329200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3920,8 +4065,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,53 +4269,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2380100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2454000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2445000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2541400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2516600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2615300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2612800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2575000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3155400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3048100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3171800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2757200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2618100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2607100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4337,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,53 +4635,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>731400</v>
+      </c>
+      <c r="E72" s="3">
         <v>657900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>610300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>563200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>466900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>381100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>288200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>198100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>126400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>75900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>93100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4530,8 +4703,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,53 +4907,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4206900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3957900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4016000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4030900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4057600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3946700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3868500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3746900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3720600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3557600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3493400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3483700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3540200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3511300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4790,8 +4975,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44015</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43924</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E81" s="3">
         <v>47600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>74900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>85800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>92900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>161800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>108400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-110700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>62100</v>
       </c>
       <c r="Q81" s="3">
         <v>62100</v>
       </c>
       <c r="R81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="S81" s="3">
         <v>37900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>154600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>64100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,8 +5212,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5024,64 +5222,67 @@
         <v>35700</v>
       </c>
       <c r="E83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F83" s="3">
         <v>35100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>61900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>77400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E89" s="3">
         <v>46700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>136000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>137300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>193400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-57600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-62300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>187000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>281300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-61800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-225200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>210500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,64 +5714,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>8900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-225200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5560,8 +5780,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-591600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>288600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>15300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>58900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6012,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5845,8 +6078,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,59 +6282,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E100" s="3">
         <v>73700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-463100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-469600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-244400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>733100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>258500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-148100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>24300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6105,58 +6350,61 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6170,58 +6418,61 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E102" s="3">
         <v>45400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-555200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>434800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>84900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-335000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-447700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>188100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-121600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>611200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>142400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -6233,6 +6484,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,316 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43924</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>627200</v>
+      </c>
+      <c r="E8" s="3">
         <v>660800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>631100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>645800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>631400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>651800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>607300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1249800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>612600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>616300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>547200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>765600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>547200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>720500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>659300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2083900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>659700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1438500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>679500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>286300</v>
+        <v>263000</v>
       </c>
       <c r="E9" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F9" s="3">
         <v>263000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>269100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>257600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>268800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>250000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>516900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>251300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>268300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>235500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>352200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>266000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>331100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>292300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>440700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>296600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>298600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>374500</v>
+        <v>364200</v>
       </c>
       <c r="E10" s="3">
+        <v>369800</v>
+      </c>
+      <c r="F10" s="3">
         <v>368100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>373800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>383000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>357300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>732900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>361300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>348000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>311700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>413400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>281200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>389400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1643200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>363100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1436200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>380900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,76 +999,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E12" s="3">
         <v>24600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>139100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>43300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42300</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,65 +1139,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19000</v>
+        <v>4300</v>
       </c>
       <c r="E14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F14" s="3">
         <v>9600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>58800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>57400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>51900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>1950500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>1943600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1190,8 +1210,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>555100</v>
+      </c>
+      <c r="E17" s="3">
         <v>572800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>556600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>580600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>539900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>605700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>525600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1071400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>517500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>542800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>485600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>857200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>572200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>642500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>580600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>735600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>614800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>115300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>598100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E18" s="3">
         <v>88000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>91500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>81700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>178400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-91600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1348300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>44900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1323200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,16 +1476,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1461,185 +1495,191 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E21" s="3">
         <v>125900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>110500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>123100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>240900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>126700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>156200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>318700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>77300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>160300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E22" s="3">
         <v>14500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3300</v>
       </c>
       <c r="P22" s="3">
         <v>3300</v>
       </c>
       <c r="Q22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>99400</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>115300</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1647,144 +1687,153 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E23" s="3">
         <v>75700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>85900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>147400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-109200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>231800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3">
         <v>82900</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-40300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-37000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>115300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E26" s="3">
         <v>73500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>70400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>140800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>62100</v>
       </c>
       <c r="R26" s="3">
         <v>62100</v>
       </c>
       <c r="S26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="T26" s="3">
         <v>37900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>154600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>64100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E27" s="3">
         <v>73500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>49600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>140800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-72200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>62100</v>
       </c>
       <c r="R27" s="3">
         <v>62100</v>
       </c>
       <c r="S27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="T27" s="3">
         <v>37900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>154600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>64100</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2113,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,40 +2125,40 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>2600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>4500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>43300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>12700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>21000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>17300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>12000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-38500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2123,8 +2184,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,16 +2326,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -2277,126 +2347,132 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1017100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E33" s="3">
         <v>73500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>74900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>92900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>161800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>108400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-110700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>62100</v>
       </c>
       <c r="R33" s="3">
         <v>62100</v>
       </c>
       <c r="S33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="T33" s="3">
         <v>37900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>154600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>64100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E35" s="3">
         <v>73500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>74900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>92900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>161800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>108400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-110700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>62100</v>
       </c>
       <c r="R35" s="3">
         <v>62100</v>
       </c>
       <c r="S35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="T35" s="3">
         <v>37900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>154600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>64100</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43924</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,56 +2742,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>585200</v>
+      </c>
+      <c r="E41" s="3">
         <v>606900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>568500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>523100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1078300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1073600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>638800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>553900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>888900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>822400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>353600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>211200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>193200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2811,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,59 +2882,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>401800</v>
+      </c>
+      <c r="E43" s="3">
         <v>393500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>392200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>372800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>342600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>331900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>307400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>355000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>358100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>361000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>365400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>306400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>365900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>443600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>456400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3602200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,59 +2953,62 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>291300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>286000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>280400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>263800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>274300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>311500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>283200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>266900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>257500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>280800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>312300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>277900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>278400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1624300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,59 +3024,62 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E45" s="3">
         <v>123400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>206400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>207600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>166500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>545900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>80800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>92500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1328700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,59 +3095,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1414300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1424600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1366000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1388300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1908900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1835800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1766400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1301700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1163300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1590500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1416200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1517700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1114200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1001900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>978500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6009000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3166,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3099,32 +3204,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>22300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>4938800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3132,59 +3237,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>430500</v>
+      </c>
+      <c r="E48" s="3">
         <v>425400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>409300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>394600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>391200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>392200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>416900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>457800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>451200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>468300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>473900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>483200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>482600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>490400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>484900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17317700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3200,59 +3308,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4571900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4583300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4463400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4465700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4097300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4178400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4204600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4574800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4580400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4689900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4642900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4589100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4551100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4591600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4574300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>623900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3379,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,59 +3521,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E52" s="3">
         <v>153700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>173200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>212400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>167800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>174100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>147000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>70700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>626800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3592,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,59 +3663,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6575000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6587000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6411900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6461000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6572300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6574200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6562000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6481300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6321900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6876000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6605700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6665200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6240900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6158300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6118400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>154600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3734,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,56 +3790,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E57" s="3">
         <v>228300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>190000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>182700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>180600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>185800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>171000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>209400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>235100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>161100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>130900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>194800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>208000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>181400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,56 +3859,59 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>510800</v>
+      </c>
+      <c r="E58" s="3">
         <v>510000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>579300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>508600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>507800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>432400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>426700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>421500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>416400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>886800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>253500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>152000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3796,59 +3930,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E59" s="3">
         <v>498400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>489000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>564900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>567300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>590000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>671500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>532300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>515300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>562800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>514000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>445800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>410600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>497300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>427300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5070100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,59 +4001,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1149600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1236700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1258300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1256200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1255700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1208200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1269200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1163200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1136300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1684700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>678900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>830200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>608900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>709200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>760700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,59 +4072,62 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>873800</v>
+      </c>
+      <c r="E61" s="3">
         <v>870700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>851600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>864100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>876900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>883400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>887800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>893200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>892200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>907700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1755500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1722200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1546700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1321000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1304500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4000,59 +4143,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272600</v>
+      </c>
+      <c r="E62" s="3">
         <v>272700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>344100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>324700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>408800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>424600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>457900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>556000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>546100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>562600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>611500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>616900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>599000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>585300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>539200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>329200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4068,8 +4214,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,56 +4427,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2380100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2454000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2445000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2541400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2516600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2615300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2612800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2575000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3155400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3048100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3171800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2757200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2618100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2607100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4340,8 +4498,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,56 +4809,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>775200</v>
+      </c>
+      <c r="E72" s="3">
         <v>731400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>657900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>610300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>563200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>466900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>381100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>288200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>198100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>126400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>75900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>93100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,8 +4880,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,56 +5093,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4279000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4206900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3957900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4016000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4030900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4057600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3946700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3868500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3746900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3720600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3557600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3493400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3483700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3540200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3511300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4978,8 +5164,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43924</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E81" s="3">
         <v>73500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>74900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>92900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>161800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>108400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-110700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>62100</v>
       </c>
       <c r="R81" s="3">
         <v>62100</v>
       </c>
       <c r="S81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="T81" s="3">
         <v>37900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>154600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>64100</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="E83" s="3">
         <v>35700</v>
       </c>
       <c r="F83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G83" s="3">
         <v>35100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>61900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>77400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>110300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>136000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>88300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>137300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>193400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-57600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-62300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>187000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>281300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-61800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-225200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>210500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,67 +5935,68 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>8900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-225200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5783,8 +6004,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-591600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>288600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-62600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>15300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>58900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,8 +6246,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6081,8 +6315,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,62 +6528,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-463100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-469600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-244400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>733100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>258500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
         <v>24300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6353,61 +6599,64 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -6421,61 +6670,64 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E102" s="3">
         <v>38400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-555200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>434800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>84900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-335000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-447700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>188100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-121600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>611200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>142400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
@@ -6487,6 +6739,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,329 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43924</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>662400</v>
+      </c>
+      <c r="E8" s="3">
         <v>627200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>660800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>631100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>645800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>631400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>651800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>607300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1249800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>612600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>616300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>547200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>765600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>547200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>720500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>659300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2083900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>659700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1438500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>679500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E9" s="3">
         <v>263000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>291000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>263000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>269100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>257600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>268800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>250000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>516900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>251300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>235500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>352200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>266000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>331100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>292300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>440700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>296600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>298600</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>383400</v>
+      </c>
+      <c r="E10" s="3">
         <v>364200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>369800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>368100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>373800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>357300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>732900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>361300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>348000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>311700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>413400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>281200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>389400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>367000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1643200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>363100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1436200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>380900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,79 +1013,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>139100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>43300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>42300</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,68 +1159,71 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>58800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>57400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>51900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
         <v>1950500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
         <v>1943600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1213,8 +1233,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1307,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1334,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>583500</v>
+      </c>
+      <c r="E17" s="3">
         <v>555100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>572800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>556600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>580600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>539900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>605700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>525600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1071400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>517500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>542800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>485600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>857200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>572200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>642500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>580600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>735600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>614800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>115300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>598100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E18" s="3">
         <v>72100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>88000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>91500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>178400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-91600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1348300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1323200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,19 +1510,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1498,191 +1532,197 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E21" s="3">
         <v>108800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>110500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>123100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>240900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>109300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>156200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>318700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>77300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>160300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E22" s="3">
         <v>16700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3300</v>
       </c>
       <c r="Q22" s="3">
         <v>3300</v>
       </c>
       <c r="R22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>99400</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>115300</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1690,150 +1730,159 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E23" s="3">
         <v>55700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>59100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>85900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-109200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>231800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3">
         <v>82900</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E24" s="3">
         <v>11900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-40300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-37000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>115300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18800</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,150 +1952,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E26" s="3">
         <v>43800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>49600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>70400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>80200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>91100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-72200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>62100</v>
       </c>
       <c r="S26" s="3">
         <v>62100</v>
       </c>
       <c r="T26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="U26" s="3">
         <v>37900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>154600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>64100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E27" s="3">
         <v>43800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>49600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>70400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>80200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-72200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>62100</v>
       </c>
       <c r="S27" s="3">
         <v>62100</v>
       </c>
       <c r="T27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="U27" s="3">
         <v>37900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>154600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>64100</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,8 +2174,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,40 +2189,40 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>2600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>43300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>12700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>21000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>17300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>12000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-38500</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2187,8 +2248,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2322,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,19 +2396,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2350,129 +2420,135 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1017100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E33" s="3">
         <v>43800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>74900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>92900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>161800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>108400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-110700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>62100</v>
       </c>
       <c r="S33" s="3">
         <v>62100</v>
       </c>
       <c r="T33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="U33" s="3">
         <v>37900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>154600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>64100</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2542,155 +2618,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E35" s="3">
         <v>43800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>74900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>92900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>161800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>108400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-110700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>62100</v>
       </c>
       <c r="S35" s="3">
         <v>62100</v>
       </c>
       <c r="T35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="U35" s="3">
         <v>37900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>154600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>64100</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43924</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2801,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,59 +2829,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E41" s="3">
         <v>585200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>606900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>568500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>523100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1078300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1073600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>638800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>553900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>888900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>822400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>353600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>211200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>193200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +2901,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2885,62 +2975,65 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>415200</v>
+      </c>
+      <c r="E43" s="3">
         <v>401800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>393500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>392200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>372800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>342600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>331900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>307400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>358100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>361000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>365400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>306400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>365900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>443600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>456400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3602200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,62 +3049,65 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E44" s="3">
         <v>307200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>291300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>286000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>280400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>263800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>274300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>311500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>283200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>266900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>257500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>280800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>312300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>277900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>278400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1624300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,62 +3123,65 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E45" s="3">
         <v>120100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>123400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>206400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>207600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>166500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>545900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>92500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>82400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1328700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,62 +3197,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1488900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1414300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1424600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1366000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1388300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1908900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1835800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1766400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1301700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1163300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1590500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1416200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1517700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1114200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1001900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>978500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6009000</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,8 +3271,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3207,32 +3312,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>22300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>4938800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3240,62 +3345,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>429700</v>
+      </c>
+      <c r="E48" s="3">
         <v>430500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>425400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>409300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>394600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>391200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>392200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>416900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>457800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>451200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>468300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>473900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>483200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>482600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>490400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>484900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17317700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,62 +3419,65 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4536900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4571900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4583300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4463400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4465700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4097300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4178400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4204600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4574800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4580400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4689900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4642900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4589100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4551100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4591600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4574300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>623900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3493,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3567,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3524,62 +3641,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E52" s="3">
         <v>158300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>153700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>173200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>212400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>174900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>167800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>174100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>72700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>70700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>74400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>626800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,8 +3715,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,62 +3789,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6607200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6575000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6587000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6411900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6461000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6572300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6574200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6562000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6481300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6321900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6876000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6605700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6665200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6240900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6158300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6118400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3737,8 +3863,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3764,8 +3893,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3791,59 +3921,60 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E57" s="3">
         <v>186800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>228300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>190000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>182700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>180600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>185800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>171000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>209400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>235100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>161100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>130900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>194800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>208000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>181400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,59 +3993,62 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>511500</v>
+      </c>
+      <c r="E58" s="3">
         <v>510800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>510000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>579300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>508600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>507800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>432400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>426700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>421500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>416400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>886800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>253500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>152000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,62 +4067,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E59" s="3">
         <v>452000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>498400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>489000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>564900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>567300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>590000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>671500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>532300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>515300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>562800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>514000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>445800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>410600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>497300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>427300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5070100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,62 +4141,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1150800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1149600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1236700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1258300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1256200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1255700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1208200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1269200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1163200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1136300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1684700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>678900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>830200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>608900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>709200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>760700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,62 +4215,65 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>875600</v>
+      </c>
+      <c r="E61" s="3">
         <v>873800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>870700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>851600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>864100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>876900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>883400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>887800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>893200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>892200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>907700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1755500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1722200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1546700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1321000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1304500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4146,62 +4289,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E62" s="3">
         <v>272600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>272700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>344100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>324700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>408800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>424600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>457900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>556000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>546100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>562600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>611500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>616900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>599000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>585300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>539200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>329200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4217,8 +4363,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,8 +4437,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4359,8 +4511,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4430,59 +4585,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2296200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2296000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2380100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2454000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2445000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2541400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2516600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2615300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2612800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2575000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3155400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3048100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3171800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2757200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2618100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2607100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4501,8 +4659,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4528,8 +4689,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +4761,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,8 +4835,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4741,8 +4909,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4812,59 +4983,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>827100</v>
+      </c>
+      <c r="E72" s="3">
         <v>775200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>731400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>657900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>610300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>563200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>466900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>381100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>288200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>198100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>126400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>75900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>93100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4883,8 +5057,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4954,8 +5131,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5205,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5096,59 +5279,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4311000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4279000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4206900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3957900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4016000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4030900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4057600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3946700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3868500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3746900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3720600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3557600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3493400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3483700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3540200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3511300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5167,8 +5353,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5238,155 +5427,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43924</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E81" s="3">
         <v>43800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>74900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>92900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>161800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>108400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-110700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>62100</v>
       </c>
       <c r="S81" s="3">
         <v>62100</v>
       </c>
       <c r="T81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="U81" s="3">
         <v>37900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>154600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>64100</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,79 +5610,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E83" s="3">
         <v>36400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>35700</v>
       </c>
       <c r="F83" s="3">
         <v>35700</v>
       </c>
       <c r="G83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="H83" s="3">
         <v>35100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>77300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-12500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>77400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5554,8 +5756,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5625,8 +5830,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5696,8 +5904,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5978,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5838,79 +6052,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>136000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>88300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>137300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>193400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-57600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>187000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>281300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-61800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-225200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>210500</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5936,70 +6156,71 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>8900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-225200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6007,8 +6228,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6078,8 +6302,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6149,79 +6376,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-591600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>288600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-62600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>15300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>58900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6247,8 +6480,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6318,8 +6552,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6389,8 +6626,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6460,8 +6700,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6531,65 +6774,68 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-68300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-463100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-469600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-244400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>733100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>258500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-148100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3">
         <v>24300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6602,64 +6848,67 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
@@ -6673,64 +6922,67 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-555200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>434800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>84900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-335000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-447700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>188100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-121600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>611200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>142400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
@@ -6742,6 +6994,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,342 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44106</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43924</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43553</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43371</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>631300</v>
+      </c>
+      <c r="E8" s="3">
         <v>662400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>627200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>660800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>631100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>645800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>631400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>651800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>607300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1249800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>612600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>616300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>547200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>765600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>547200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>720500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>659300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2083900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>659700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1438500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>679500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E9" s="3">
         <v>279000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>263000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>291000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>263000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>269100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>257600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>268800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>250000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>516900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>251300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>235500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>266000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>331100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>292300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>440700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>296600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>298600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>364300</v>
+      </c>
+      <c r="E10" s="3">
         <v>383400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>364200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>369800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>368100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>373800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>357300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>732900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>361300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>348000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>311700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>413400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>281200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>389400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>367000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1643200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>363100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1436200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>380900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,82 +1027,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E12" s="3">
         <v>18000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>43500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>139100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>43300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>36000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>42300</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,71 +1179,74 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
         <v>13600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>58800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>57400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>51900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>1950500</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>1943600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1236,8 +1256,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1333,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1335,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E17" s="3">
         <v>583500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>555100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>572800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>556600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>580600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>539900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>605700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>525600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1071400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>517500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>542800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>485600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>857200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>572200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>642500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>580600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>735600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>614800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>115300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>598100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E18" s="3">
         <v>78900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>88000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>65200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>91500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>178400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>78700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1348300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1323200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81400</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,22 +1544,23 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E20" s="3">
         <v>7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
@@ -1535,197 +1569,203 @@
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1017100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E21" s="3">
         <v>119500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>123100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>112000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>240900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>109300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>156200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>318700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>77300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>160300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E22" s="3">
         <v>17400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3300</v>
       </c>
       <c r="R22" s="3">
         <v>3300</v>
       </c>
       <c r="S22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>99400</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>115300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1733,156 +1773,165 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E23" s="3">
         <v>68600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>75700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>59100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>85900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>231800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>45000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3">
         <v>82900</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
         <v>16700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-40300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>115300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18800</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>51900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>49600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>70400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>91100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>62100</v>
       </c>
       <c r="T26" s="3">
         <v>62100</v>
       </c>
       <c r="U26" s="3">
+        <v>62100</v>
+      </c>
+      <c r="V26" s="3">
         <v>37900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>154600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>64100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>51900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>49600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>70400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>91100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>56100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>62100</v>
       </c>
       <c r="T27" s="3">
         <v>62100</v>
       </c>
       <c r="U27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="V27" s="3">
         <v>37900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>154600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>64100</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2177,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>43300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>21000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>17300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>12000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2251,8 +2312,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,22 +2466,25 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
@@ -2423,132 +2493,138 @@
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1017100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>51900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>74900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>85800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>92900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>161800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>108400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-110700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>62100</v>
       </c>
       <c r="T33" s="3">
         <v>62100</v>
       </c>
       <c r="U33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="V33" s="3">
         <v>37900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>154600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>64100</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2621,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>51900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>74900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>85800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>92900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>161800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>108400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-110700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>62100</v>
       </c>
       <c r="T35" s="3">
         <v>62100</v>
       </c>
       <c r="U35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="V35" s="3">
         <v>37900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>154600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>64100</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44106</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43924</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43553</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43371</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2802,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2830,62 +2916,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>824200</v>
+      </c>
+      <c r="E41" s="3">
         <v>651700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>585200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>606900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>568500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>523100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1078300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1073600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>638800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>553900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>441200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>888900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>822400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>353600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>211200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>193200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +2991,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2978,65 +3068,68 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>417100</v>
+      </c>
+      <c r="E43" s="3">
         <v>415200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>401800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>393500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>392200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>372800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>342600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>331900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>307400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>358100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>361000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>365400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>306400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>365900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>443600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>456400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3602200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3052,65 +3145,68 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E44" s="3">
         <v>297000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>307200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>291300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>286000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>280400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>263800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>274300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>311500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>283200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>266900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>257500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>280800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>312300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>277900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>278400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1624300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3126,65 +3222,68 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E45" s="3">
         <v>125000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>120100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>123400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>206400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>207600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>166500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>545900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>92500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>108100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>82400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1328700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3200,65 +3299,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1640700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1488900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1414300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1424600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1366000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1388300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1908900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1835800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1766400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1301700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1163300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1590500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1416200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1517700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1114200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1001900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>978500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6009000</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3376,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3315,32 +3420,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>22300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
         <v>4938800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3348,65 +3453,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>430600</v>
+      </c>
+      <c r="E48" s="3">
         <v>429700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>430500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>425400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>409300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>394600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>391200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>392200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>416900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>457800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>451200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>468300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>473900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>483200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>482600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>490400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>484900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17317700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3422,65 +3530,68 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4459600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4536900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4571900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4583300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4463400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4465700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4097300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4178400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4204600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4574800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4580400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4689900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4642900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4589100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4551100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4591600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4574300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>623900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3607,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3570,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3644,65 +3761,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E52" s="3">
         <v>151700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>158300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>153700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>173200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>212400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>174900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>167800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>174100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>72700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>70700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>74400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>626800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3718,8 +3838,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3792,65 +3915,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6683800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6607200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6575000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6587000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6411900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6461000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6572300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6574200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6562000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6481300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6321900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6876000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6605700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6665200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6240900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6158300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6118400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>154600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +3992,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3894,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3922,62 +4052,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E57" s="3">
         <v>176800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>186800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>228300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>190000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>182700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>180600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>185800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>171000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>209400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>204600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>235100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>161100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>130900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>194800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>208000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>181400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,62 +4127,65 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E58" s="3">
         <v>511500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>510800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>510000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>579300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>508600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>507800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>432400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>426700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>421500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>416400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>886800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>253500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>152000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,65 +4204,68 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>463100</v>
+      </c>
+      <c r="E59" s="3">
         <v>462500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>452000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>498400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>489000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>564900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>567300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>590000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>671500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>532300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>515300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>562800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>514000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>445800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>410600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>497300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>427300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5070100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4144,65 +4281,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1150800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1149600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1236700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1258300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1256200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1255700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1208200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1269200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1163200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1136300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1684700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>678900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>830200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>608900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>709200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>760700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4218,65 +4358,68 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E61" s="3">
         <v>875600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>873800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>870700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>851600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>864100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>876900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>883400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>887800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>893200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>892200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>907700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1755500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1722200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1546700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1321000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1304500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4292,65 +4435,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>262800</v>
+      </c>
+      <c r="E62" s="3">
         <v>269800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>272600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>272700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>344100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>324700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>408800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>424600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>457900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>556000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>546100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>562600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>611500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>616900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>599000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>585300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>539200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>329200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4512,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4440,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4514,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4588,62 +4743,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2390600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2296200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2296000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2380100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2454000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2445000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2541400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2516600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2615300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2612800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2575000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3155400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3048100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3171800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2757200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2618100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2607100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4662,8 +4820,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4690,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4764,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4838,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4912,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4986,62 +5157,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>848600</v>
+      </c>
+      <c r="E72" s="3">
         <v>827100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>775200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>731400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>657900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>610300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>563200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>466900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>381100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>288200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>198100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>126400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>75900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>93100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5234,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5134,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5208,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5282,62 +5465,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4293200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4311000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4279000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4206900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3957900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4016000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4030900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4057600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3946700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3868500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3746900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3720600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3557600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3493400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3483700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3540200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3511300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5356,8 +5542,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5430,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44106</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43924</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43553</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43371</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>51900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>74900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>85800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>92900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>161800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>108400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-110700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>62100</v>
       </c>
       <c r="T81" s="3">
         <v>62100</v>
       </c>
       <c r="U81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="V81" s="3">
         <v>37900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>154600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>64100</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5611,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E83" s="3">
         <v>33500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>36400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>35700</v>
       </c>
       <c r="G83" s="3">
         <v>35700</v>
       </c>
       <c r="H83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I83" s="3">
         <v>35100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>61900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>64900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>77300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-12500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>77400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5759,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5833,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5907,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5981,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6055,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E89" s="3">
         <v>75100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>136000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>137300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>193400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>148100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-62300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>187000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>281300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-61800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-225200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>210500</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6157,73 +6377,74 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>8900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-225200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6231,8 +6452,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6305,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6379,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-591600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>288600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-62600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>15300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15300</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>58900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6481,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6555,8 +6789,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6629,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6703,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6777,68 +7020,71 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-68300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-463100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-469600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-244400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>733100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>258500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-148100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3">
         <v>24300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6851,67 +7097,70 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
@@ -6925,67 +7174,70 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E102" s="3">
         <v>66500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-555200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>434800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>84900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-335000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-447700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>188100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-121600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>611200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>142400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
@@ -6997,6 +7249,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
